--- a/CLCMinesweeperApp/Planning and Design/Week 2/CST-247-RS-SprintBackLog-W2.xlsx
+++ b/CLCMinesweeperApp/Planning and Design/Week 2/CST-247-RS-SprintBackLog-W2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
   <si>
     <t>Project Title:FR1
 Release #:1
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1077,8 +1077,12 @@
       <c r="E21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">

--- a/CLCMinesweeperApp/Planning and Design/Week 2/CST-247-RS-SprintBackLog-W2.xlsx
+++ b/CLCMinesweeperApp/Planning and Design/Week 2/CST-247-RS-SprintBackLog-W2.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxxfa\Dropbox\GCU Work\CST-247\Scrum Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unico\Source\Repos\Malleas\CLCMinesweeperApp\CLCMinesweeperApp\Planning and Design\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B5A84-17AC-4039-A634-17AF3F413462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19920"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi7SQbhspVBSd/xrjzdcWM760/m5w=="/>
     </ext>
@@ -145,9 +154,6 @@
     <t>create a successful landing page for both registration and login</t>
   </si>
   <si>
-    <t>so we can let our players not they request was successful</t>
-  </si>
-  <si>
     <t>FR2 / FR4</t>
   </si>
   <si>
@@ -158,9 +164,6 @@
   </si>
   <si>
     <t>Create login page</t>
-  </si>
-  <si>
-    <t>so an existing player an log in to play a new game</t>
   </si>
   <si>
     <t>FR2 / FR3 / FR4</t>
@@ -207,11 +210,17 @@
   <si>
     <t>Create userLogin model to help create template page for login</t>
   </si>
+  <si>
+    <t>so we can let our players know their request was successful</t>
+  </si>
+  <si>
+    <t>so an existing player can log in to play a new game</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,15 +377,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +396,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,48 +619,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="42.36328125" customWidth="1"/>
-    <col min="5" max="5" width="37.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -674,191 +683,191 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="17">
         <v>1</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="17">
         <v>1</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="G5" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="G6" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+    <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="17">
         <v>1</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="17">
         <v>2</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="17">
         <v>2</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -874,12 +883,14 @@
       <c r="E12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
       <c r="G12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -890,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>33</v>
@@ -902,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -925,7 +936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -939,14 +950,16 @@
         <v>38</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
       <c r="G15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>A15+1</f>
         <v>13</v>
@@ -958,32 +971,34 @@
         <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2</v>
+      </c>
       <c r="G16" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f t="shared" ref="A17:A50" si="0">A16+1</f>
+        <f t="shared" ref="A17:A18" si="0">A16+1</f>
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="9">
         <v>2</v>
@@ -992,22 +1007,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" s="10">
         <v>2</v>
@@ -1016,22 +1031,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>A18+1</f>
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -1040,27 +1055,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" ref="A20:A50" si="1">A19+1</f>
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1081,10 +1096,10 @@
         <v>2</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1104,7 +1119,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1124,7 +1139,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1144,7 +1159,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1164,7 +1179,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1184,47 +1199,47 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1236,7 +1251,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1248,7 +1263,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1260,7 +1275,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1272,7 +1287,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1284,7 +1299,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1296,7 +1311,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1308,7 +1323,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1320,7 +1335,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1332,7 +1347,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1344,7 +1359,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1356,7 +1371,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1368,7 +1383,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1380,7 +1395,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1392,7 +1407,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1404,7 +1419,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1416,7 +1431,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1428,7 +1443,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1440,7 +1455,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1452,7 +1467,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1464,7 +1479,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1476,7 +1491,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1488,7 +1503,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -1497,7 +1512,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -1506,7 +1521,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -1515,7 +1530,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -1524,7 +1539,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -1533,7 +1548,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -1542,7 +1557,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -1551,7 +1566,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -1560,7 +1575,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -1569,7 +1584,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -1578,7 +1593,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -1587,7 +1602,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -1596,7 +1611,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -1605,7 +1620,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -1614,7 +1629,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -1623,7 +1638,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -1632,7 +1647,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -1641,7 +1656,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -1650,7 +1665,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -1659,7 +1674,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -1668,7 +1683,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -1677,7 +1692,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -1686,7 +1701,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -1695,7 +1710,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -1704,7 +1719,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -1713,7 +1728,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -1722,7 +1737,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -1731,7 +1746,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -1740,7 +1755,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -1749,7 +1764,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -1758,7 +1773,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -1767,7 +1782,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -1776,7 +1791,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -1785,7 +1800,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -1794,7 +1809,7 @@
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -1803,7 +1818,7 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -1812,7 +1827,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -1821,7 +1836,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
@@ -1830,7 +1845,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -1839,7 +1854,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -1848,7 +1863,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -1857,7 +1872,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -1866,7 +1881,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
@@ -1875,7 +1890,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
@@ -1884,7 +1899,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -1893,7 +1908,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -1902,7 +1917,7 @@
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
@@ -1911,7 +1926,7 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
@@ -1920,7 +1935,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
@@ -1929,7 +1944,7 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
@@ -1938,7 +1953,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
@@ -1947,7 +1962,7 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -1956,7 +1971,7 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
@@ -1965,7 +1980,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
@@ -1974,7 +1989,7 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
@@ -1983,7 +1998,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
@@ -1992,7 +2007,7 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
@@ -2001,7 +2016,7 @@
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
@@ -2010,7 +2025,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
@@ -2019,7 +2034,7 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -2028,7 +2043,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
@@ -2037,7 +2052,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
@@ -2046,7 +2061,7 @@
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
@@ -2055,7 +2070,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
@@ -2064,7 +2079,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
@@ -2073,7 +2088,7 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
@@ -2082,7 +2097,7 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
@@ -2091,7 +2106,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
@@ -2100,7 +2115,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
@@ -2109,7 +2124,7 @@
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
@@ -2118,7 +2133,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
@@ -2127,7 +2142,7 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
@@ -2136,7 +2151,7 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -2145,7 +2160,7 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
@@ -2154,7 +2169,7 @@
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
@@ -2163,7 +2178,7 @@
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
@@ -2172,7 +2187,7 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
@@ -2181,7 +2196,7 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
@@ -2190,7 +2205,7 @@
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
@@ -2199,7 +2214,7 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
@@ -2208,7 +2223,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
@@ -2217,7 +2232,7 @@
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
@@ -2226,7 +2241,7 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
@@ -2235,7 +2250,7 @@
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
@@ -2244,7 +2259,7 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
@@ -2253,7 +2268,7 @@
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
@@ -2262,7 +2277,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
@@ -2271,7 +2286,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
@@ -2280,7 +2295,7 @@
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
@@ -2289,7 +2304,7 @@
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
@@ -2298,7 +2313,7 @@
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
@@ -2307,7 +2322,7 @@
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
@@ -2316,7 +2331,7 @@
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
@@ -2325,7 +2340,7 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
@@ -2334,7 +2349,7 @@
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
@@ -2343,7 +2358,7 @@
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6"/>
@@ -2352,7 +2367,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
@@ -2361,7 +2376,7 @@
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
@@ -2370,7 +2385,7 @@
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
@@ -2379,7 +2394,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
@@ -2388,7 +2403,7 @@
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
@@ -2397,7 +2412,7 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
@@ -2406,7 +2421,7 @@
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
@@ -2415,7 +2430,7 @@
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
@@ -2424,7 +2439,7 @@
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
@@ -2433,7 +2448,7 @@
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
@@ -2442,7 +2457,7 @@
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
@@ -2451,7 +2466,7 @@
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
@@ -2460,7 +2475,7 @@
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
@@ -2469,7 +2484,7 @@
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
@@ -2478,7 +2493,7 @@
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
@@ -2487,7 +2502,7 @@
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
@@ -2496,7 +2511,7 @@
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
@@ -2505,7 +2520,7 @@
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
@@ -2514,7 +2529,7 @@
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
@@ -2523,7 +2538,7 @@
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
@@ -2532,7 +2547,7 @@
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -2541,7 +2556,7 @@
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
@@ -2550,7 +2565,7 @@
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
@@ -2559,7 +2574,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -2568,7 +2583,7 @@
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
@@ -2577,7 +2592,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
@@ -2586,7 +2601,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -2595,7 +2610,7 @@
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
@@ -2604,7 +2619,7 @@
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
@@ -2613,7 +2628,7 @@
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -2622,7 +2637,7 @@
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
@@ -2631,7 +2646,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
@@ -2640,7 +2655,7 @@
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -2649,7 +2664,7 @@
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
@@ -2658,7 +2673,7 @@
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -2667,7 +2682,7 @@
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -2676,7 +2691,7 @@
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -2685,7 +2700,7 @@
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -2694,7 +2709,7 @@
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -2703,7 +2718,7 @@
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -2712,7 +2727,7 @@
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -2721,7 +2736,7 @@
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -2730,7 +2745,7 @@
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -2739,7 +2754,7 @@
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -2748,7 +2763,7 @@
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -2757,7 +2772,7 @@
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -2766,7 +2781,7 @@
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -2775,7 +2790,7 @@
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -2784,7 +2799,7 @@
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -2793,7 +2808,7 @@
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -2802,7 +2817,7 @@
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -2811,7 +2826,7 @@
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -2820,7 +2835,7 @@
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -2829,7 +2844,7 @@
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -2838,7 +2853,7 @@
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -2847,7 +2862,7 @@
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -2856,7 +2871,7 @@
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -2865,7 +2880,7 @@
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -2874,7 +2889,7 @@
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -2883,7 +2898,7 @@
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -2892,7 +2907,7 @@
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -2901,7 +2916,7 @@
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -2910,7 +2925,7 @@
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -2919,7 +2934,7 @@
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -2928,7 +2943,7 @@
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -2937,7 +2952,7 @@
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -2946,7 +2961,7 @@
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -2955,7 +2970,7 @@
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -2964,7 +2979,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -2973,7 +2988,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -2982,7 +2997,7 @@
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
@@ -2991,7 +3006,7 @@
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
@@ -3000,7 +3015,7 @@
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
@@ -3009,7 +3024,7 @@
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
@@ -3018,7 +3033,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
@@ -3027,7 +3042,7 @@
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -3036,7 +3051,7 @@
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
@@ -3045,7 +3060,7 @@
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
@@ -3054,7 +3069,7 @@
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
@@ -3063,7 +3078,7 @@
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
@@ -3072,7 +3087,7 @@
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
@@ -3081,7 +3096,7 @@
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
@@ -3090,7 +3105,7 @@
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
@@ -3099,7 +3114,7 @@
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
@@ -3108,7 +3123,7 @@
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -3117,7 +3132,7 @@
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
@@ -3126,7 +3141,7 @@
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
@@ -3135,7 +3150,7 @@
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
@@ -3144,7 +3159,7 @@
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
@@ -3153,7 +3168,7 @@
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
@@ -3162,7 +3177,7 @@
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
@@ -3171,7 +3186,7 @@
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
@@ -3180,7 +3195,7 @@
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
@@ -3189,7 +3204,7 @@
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
@@ -3198,7 +3213,7 @@
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
@@ -3207,7 +3222,7 @@
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
@@ -3216,7 +3231,7 @@
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
     </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
@@ -3225,7 +3240,7 @@
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
     </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
@@ -3234,7 +3249,7 @@
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
@@ -3243,7 +3258,7 @@
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
@@ -3252,7 +3267,7 @@
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
@@ -3261,7 +3276,7 @@
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
@@ -3270,7 +3285,7 @@
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
@@ -3279,7 +3294,7 @@
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
@@ -3288,5257 +3303,5257 @@
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
     </row>
-    <row r="257" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
     </row>
-    <row r="258" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
     </row>
-    <row r="259" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
     </row>
-    <row r="260" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
     </row>
-    <row r="261" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
     </row>
-    <row r="262" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
     </row>
-    <row r="263" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
     </row>
-    <row r="264" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
     </row>
-    <row r="265" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
     </row>
-    <row r="266" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
     </row>
-    <row r="267" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
     </row>
-    <row r="268" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
     </row>
-    <row r="269" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
     </row>
-    <row r="270" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
     </row>
-    <row r="271" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
       <c r="G271" s="11"/>
     </row>
-    <row r="272" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
     </row>
-    <row r="273" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
     </row>
-    <row r="274" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
     </row>
-    <row r="275" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
     </row>
-    <row r="276" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
     </row>
-    <row r="277" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
     </row>
-    <row r="278" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
     </row>
-    <row r="279" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
     </row>
-    <row r="280" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
     </row>
-    <row r="281" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
     </row>
-    <row r="282" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
     </row>
-    <row r="283" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
       <c r="G283" s="11"/>
     </row>
-    <row r="284" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
     </row>
-    <row r="285" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
       <c r="G285" s="11"/>
     </row>
-    <row r="286" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
     </row>
-    <row r="287" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
       <c r="G287" s="11"/>
     </row>
-    <row r="288" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
     </row>
-    <row r="289" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
     </row>
-    <row r="290" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
       <c r="G290" s="11"/>
     </row>
-    <row r="291" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
       <c r="G291" s="11"/>
     </row>
-    <row r="292" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
       <c r="G292" s="11"/>
     </row>
-    <row r="293" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
       <c r="G293" s="11"/>
     </row>
-    <row r="294" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
     </row>
-    <row r="295" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
       <c r="G295" s="11"/>
     </row>
-    <row r="296" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
     </row>
-    <row r="297" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
       <c r="G297" s="11"/>
     </row>
-    <row r="298" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
     </row>
-    <row r="299" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
     </row>
-    <row r="300" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
     </row>
-    <row r="301" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
     </row>
-    <row r="302" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
     </row>
-    <row r="304" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
       <c r="G304" s="11"/>
     </row>
-    <row r="305" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
       <c r="G305" s="11"/>
     </row>
-    <row r="306" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
       <c r="G306" s="11"/>
     </row>
-    <row r="307" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
       <c r="G307" s="11"/>
     </row>
-    <row r="308" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
       <c r="G308" s="11"/>
     </row>
-    <row r="309" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
       <c r="G309" s="11"/>
     </row>
-    <row r="310" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
       <c r="G310" s="11"/>
     </row>
-    <row r="311" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
       <c r="G311" s="11"/>
     </row>
-    <row r="312" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
       <c r="G312" s="11"/>
     </row>
-    <row r="313" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
       <c r="G313" s="11"/>
     </row>
-    <row r="314" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
       <c r="G314" s="11"/>
     </row>
-    <row r="315" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
       <c r="G315" s="11"/>
     </row>
-    <row r="316" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
       <c r="G316" s="11"/>
     </row>
-    <row r="317" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
       <c r="G317" s="11"/>
     </row>
-    <row r="318" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
       <c r="G318" s="11"/>
     </row>
-    <row r="319" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
       <c r="G319" s="11"/>
     </row>
-    <row r="320" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
       <c r="G320" s="11"/>
     </row>
-    <row r="321" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
       <c r="G321" s="11"/>
     </row>
-    <row r="322" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
       <c r="G322" s="11"/>
     </row>
-    <row r="323" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
       <c r="G323" s="11"/>
     </row>
-    <row r="324" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
       <c r="G324" s="11"/>
     </row>
-    <row r="325" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
       <c r="G325" s="11"/>
     </row>
-    <row r="326" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
       <c r="G326" s="11"/>
     </row>
-    <row r="327" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
       <c r="G327" s="11"/>
     </row>
-    <row r="328" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
       <c r="G328" s="11"/>
     </row>
-    <row r="329" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
       <c r="G329" s="11"/>
     </row>
-    <row r="330" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
       <c r="G330" s="11"/>
     </row>
-    <row r="331" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
       <c r="G331" s="11"/>
     </row>
-    <row r="332" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
       <c r="G332" s="11"/>
     </row>
-    <row r="333" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
       <c r="G333" s="11"/>
     </row>
-    <row r="334" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
       <c r="G334" s="11"/>
     </row>
-    <row r="335" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
       <c r="G335" s="11"/>
     </row>
-    <row r="336" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
       <c r="G336" s="11"/>
     </row>
-    <row r="337" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
       <c r="G337" s="11"/>
     </row>
-    <row r="338" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
       <c r="G338" s="11"/>
     </row>
-    <row r="339" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
       <c r="G339" s="11"/>
     </row>
-    <row r="340" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
       <c r="G340" s="11"/>
     </row>
-    <row r="341" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
       <c r="G341" s="11"/>
     </row>
-    <row r="342" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
       <c r="G342" s="11"/>
     </row>
-    <row r="343" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
       <c r="G343" s="11"/>
     </row>
-    <row r="344" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
       <c r="G344" s="11"/>
     </row>
-    <row r="345" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
       <c r="G345" s="11"/>
     </row>
-    <row r="346" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
       <c r="G346" s="11"/>
     </row>
-    <row r="347" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C347" s="11"/>
       <c r="D347" s="11"/>
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
       <c r="G347" s="11"/>
     </row>
-    <row r="348" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
       <c r="G348" s="11"/>
     </row>
-    <row r="349" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
       <c r="G349" s="11"/>
     </row>
-    <row r="350" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
       <c r="G350" s="11"/>
     </row>
-    <row r="351" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
       <c r="G351" s="11"/>
     </row>
-    <row r="352" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
       <c r="G352" s="11"/>
     </row>
-    <row r="353" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
       <c r="G353" s="11"/>
     </row>
-    <row r="354" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
       <c r="G354" s="11"/>
     </row>
-    <row r="355" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C355" s="11"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
       <c r="G355" s="11"/>
     </row>
-    <row r="356" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
       <c r="G356" s="11"/>
     </row>
-    <row r="357" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="11"/>
     </row>
-    <row r="358" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="11"/>
     </row>
-    <row r="359" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="11"/>
     </row>
-    <row r="360" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="11"/>
     </row>
-    <row r="361" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="11"/>
     </row>
-    <row r="362" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="11"/>
     </row>
-    <row r="363" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
       <c r="G363" s="11"/>
     </row>
-    <row r="364" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
       <c r="G364" s="11"/>
     </row>
-    <row r="365" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
       <c r="G365" s="11"/>
     </row>
-    <row r="366" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
       <c r="G366" s="11"/>
     </row>
-    <row r="367" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
       <c r="G367" s="11"/>
     </row>
-    <row r="368" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
       <c r="G368" s="11"/>
     </row>
-    <row r="369" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
       <c r="G369" s="11"/>
     </row>
-    <row r="370" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
       <c r="G370" s="11"/>
     </row>
-    <row r="371" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
       <c r="G371" s="11"/>
     </row>
-    <row r="372" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
       <c r="G372" s="11"/>
     </row>
-    <row r="373" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
       <c r="G373" s="11"/>
     </row>
-    <row r="374" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
       <c r="G374" s="11"/>
     </row>
-    <row r="375" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
       <c r="G375" s="11"/>
     </row>
-    <row r="376" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
       <c r="G376" s="11"/>
     </row>
-    <row r="377" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
       <c r="G377" s="11"/>
     </row>
-    <row r="378" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
       <c r="G378" s="11"/>
     </row>
-    <row r="379" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
       <c r="G379" s="11"/>
     </row>
-    <row r="380" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
       <c r="G380" s="11"/>
     </row>
-    <row r="381" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
       <c r="G381" s="11"/>
     </row>
-    <row r="382" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
       <c r="G382" s="11"/>
     </row>
-    <row r="383" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
       <c r="G383" s="11"/>
     </row>
-    <row r="384" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
       <c r="G384" s="11"/>
     </row>
-    <row r="385" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
       <c r="G385" s="11"/>
     </row>
-    <row r="386" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
       <c r="G386" s="11"/>
     </row>
-    <row r="387" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
       <c r="G387" s="11"/>
     </row>
-    <row r="388" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
       <c r="G388" s="11"/>
     </row>
-    <row r="389" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
       <c r="G389" s="11"/>
     </row>
-    <row r="390" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
       <c r="G390" s="11"/>
     </row>
-    <row r="391" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
       <c r="G391" s="11"/>
     </row>
-    <row r="392" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
       <c r="G392" s="11"/>
     </row>
-    <row r="393" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
       <c r="G393" s="11"/>
     </row>
-    <row r="394" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
       <c r="G394" s="11"/>
     </row>
-    <row r="395" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
       <c r="G395" s="11"/>
     </row>
-    <row r="396" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
       <c r="G396" s="11"/>
     </row>
-    <row r="397" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
       <c r="G397" s="11"/>
     </row>
-    <row r="398" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
       <c r="G398" s="11"/>
     </row>
-    <row r="399" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
       <c r="G399" s="11"/>
     </row>
-    <row r="400" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
       <c r="G400" s="11"/>
     </row>
-    <row r="401" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
       <c r="G401" s="11"/>
     </row>
-    <row r="402" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
       <c r="G402" s="11"/>
     </row>
-    <row r="403" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
       <c r="G403" s="11"/>
     </row>
-    <row r="404" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
       <c r="G404" s="11"/>
     </row>
-    <row r="405" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
       <c r="G405" s="11"/>
     </row>
-    <row r="406" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
     </row>
-    <row r="407" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
       <c r="G407" s="11"/>
     </row>
-    <row r="408" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
       <c r="G408" s="11"/>
     </row>
-    <row r="409" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
       <c r="G409" s="11"/>
     </row>
-    <row r="410" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
       <c r="G410" s="11"/>
     </row>
-    <row r="411" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
       <c r="G411" s="11"/>
     </row>
-    <row r="412" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
       <c r="G412" s="11"/>
     </row>
-    <row r="413" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
       <c r="G413" s="11"/>
     </row>
-    <row r="414" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
       <c r="G414" s="11"/>
     </row>
-    <row r="415" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
       <c r="G415" s="11"/>
     </row>
-    <row r="416" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
       <c r="G416" s="11"/>
     </row>
-    <row r="417" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
       <c r="G417" s="11"/>
     </row>
-    <row r="418" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
       <c r="G418" s="11"/>
     </row>
-    <row r="419" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
       <c r="G419" s="11"/>
     </row>
-    <row r="420" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
       <c r="G420" s="11"/>
     </row>
-    <row r="421" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
       <c r="G421" s="11"/>
     </row>
-    <row r="422" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
       <c r="G422" s="11"/>
     </row>
-    <row r="423" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
       <c r="G423" s="11"/>
     </row>
-    <row r="424" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
       <c r="G424" s="11"/>
     </row>
-    <row r="425" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
       <c r="G425" s="11"/>
     </row>
-    <row r="426" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
       <c r="G426" s="11"/>
     </row>
-    <row r="427" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
       <c r="G427" s="11"/>
     </row>
-    <row r="428" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
       <c r="G428" s="11"/>
     </row>
-    <row r="429" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
       <c r="G429" s="11"/>
     </row>
-    <row r="430" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
     </row>
-    <row r="431" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
       <c r="G431" s="11"/>
     </row>
-    <row r="432" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
       <c r="G432" s="11"/>
     </row>
-    <row r="433" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
       <c r="G433" s="11"/>
     </row>
-    <row r="434" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
     </row>
-    <row r="435" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
       <c r="G435" s="11"/>
     </row>
-    <row r="436" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
       <c r="G436" s="11"/>
     </row>
-    <row r="437" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
       <c r="G437" s="11"/>
     </row>
-    <row r="438" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
     </row>
-    <row r="439" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
       <c r="G439" s="11"/>
     </row>
-    <row r="440" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
       <c r="G440" s="11"/>
     </row>
-    <row r="441" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
       <c r="G441" s="11"/>
     </row>
-    <row r="442" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
       <c r="G442" s="11"/>
     </row>
-    <row r="443" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
       <c r="G443" s="11"/>
     </row>
-    <row r="444" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
       <c r="G444" s="11"/>
     </row>
-    <row r="445" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
       <c r="G445" s="11"/>
     </row>
-    <row r="446" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
       <c r="G446" s="11"/>
     </row>
-    <row r="447" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
       <c r="G447" s="11"/>
     </row>
-    <row r="448" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
       <c r="G448" s="11"/>
     </row>
-    <row r="449" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
       <c r="G449" s="11"/>
     </row>
-    <row r="450" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
       <c r="G450" s="11"/>
     </row>
-    <row r="451" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
       <c r="G451" s="11"/>
     </row>
-    <row r="452" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
       <c r="G452" s="11"/>
     </row>
-    <row r="453" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
       <c r="G453" s="11"/>
     </row>
-    <row r="454" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
       <c r="G454" s="11"/>
     </row>
-    <row r="455" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
       <c r="G455" s="11"/>
     </row>
-    <row r="456" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
       <c r="G456" s="11"/>
     </row>
-    <row r="457" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C457" s="11"/>
       <c r="D457" s="11"/>
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
       <c r="G457" s="11"/>
     </row>
-    <row r="458" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
       <c r="G458" s="11"/>
     </row>
-    <row r="459" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
       <c r="G459" s="11"/>
     </row>
-    <row r="460" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
       <c r="G460" s="11"/>
     </row>
-    <row r="461" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
       <c r="G461" s="11"/>
     </row>
-    <row r="462" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
       <c r="G462" s="11"/>
     </row>
-    <row r="463" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
       <c r="G463" s="11"/>
     </row>
-    <row r="464" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
       <c r="G464" s="11"/>
     </row>
-    <row r="465" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C465" s="11"/>
       <c r="D465" s="11"/>
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
       <c r="G465" s="11"/>
     </row>
-    <row r="466" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
       <c r="G466" s="11"/>
     </row>
-    <row r="467" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
       <c r="G467" s="11"/>
     </row>
-    <row r="468" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
       <c r="G468" s="11"/>
     </row>
-    <row r="469" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C469" s="11"/>
       <c r="D469" s="11"/>
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
       <c r="G469" s="11"/>
     </row>
-    <row r="470" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
     </row>
-    <row r="471" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
     </row>
-    <row r="472" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
       <c r="G472" s="11"/>
     </row>
-    <row r="473" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
       <c r="G473" s="11"/>
     </row>
-    <row r="474" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
       <c r="G474" s="11"/>
     </row>
-    <row r="475" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
       <c r="G475" s="11"/>
     </row>
-    <row r="476" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
       <c r="G476" s="11"/>
     </row>
-    <row r="477" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
       <c r="G477" s="11"/>
     </row>
-    <row r="478" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
       <c r="G478" s="11"/>
     </row>
-    <row r="479" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
       <c r="G479" s="11"/>
     </row>
-    <row r="480" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
       <c r="G480" s="11"/>
     </row>
-    <row r="481" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C481" s="11"/>
       <c r="D481" s="11"/>
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
       <c r="G481" s="11"/>
     </row>
-    <row r="482" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
       <c r="G482" s="11"/>
     </row>
-    <row r="483" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C483" s="11"/>
       <c r="D483" s="11"/>
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
       <c r="G483" s="11"/>
     </row>
-    <row r="484" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
       <c r="G484" s="11"/>
     </row>
-    <row r="485" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
       <c r="G485" s="11"/>
     </row>
-    <row r="486" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
       <c r="G486" s="11"/>
     </row>
-    <row r="487" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C487" s="11"/>
       <c r="D487" s="11"/>
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
       <c r="G487" s="11"/>
     </row>
-    <row r="488" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
       <c r="G488" s="11"/>
     </row>
-    <row r="489" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
       <c r="G489" s="11"/>
     </row>
-    <row r="490" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
       <c r="G490" s="11"/>
     </row>
-    <row r="491" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
       <c r="G491" s="11"/>
     </row>
-    <row r="492" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
       <c r="G492" s="11"/>
     </row>
-    <row r="493" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
       <c r="G493" s="11"/>
     </row>
-    <row r="494" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
       <c r="G494" s="11"/>
     </row>
-    <row r="495" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
       <c r="G495" s="11"/>
     </row>
-    <row r="496" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C496" s="11"/>
       <c r="D496" s="11"/>
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
       <c r="G496" s="11"/>
     </row>
-    <row r="497" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C497" s="11"/>
       <c r="D497" s="11"/>
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
       <c r="G497" s="11"/>
     </row>
-    <row r="498" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C498" s="11"/>
       <c r="D498" s="11"/>
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
       <c r="G498" s="11"/>
     </row>
-    <row r="499" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
       <c r="G499" s="11"/>
     </row>
-    <row r="500" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
       <c r="G500" s="11"/>
     </row>
-    <row r="501" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
       <c r="G501" s="11"/>
     </row>
-    <row r="502" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
       <c r="G502" s="11"/>
     </row>
-    <row r="503" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
       <c r="G503" s="11"/>
     </row>
-    <row r="504" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
       <c r="G504" s="11"/>
     </row>
-    <row r="505" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
       <c r="G505" s="11"/>
     </row>
-    <row r="506" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
       <c r="G506" s="11"/>
     </row>
-    <row r="507" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
       <c r="G507" s="11"/>
     </row>
-    <row r="508" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
       <c r="G508" s="11"/>
     </row>
-    <row r="509" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
       <c r="G509" s="11"/>
     </row>
-    <row r="510" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
       <c r="G510" s="11"/>
     </row>
-    <row r="511" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
       <c r="G511" s="11"/>
     </row>
-    <row r="512" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C512" s="11"/>
       <c r="D512" s="11"/>
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
       <c r="G512" s="11"/>
     </row>
-    <row r="513" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
       <c r="G513" s="11"/>
     </row>
-    <row r="514" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
       <c r="G514" s="11"/>
     </row>
-    <row r="515" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C515" s="11"/>
       <c r="D515" s="11"/>
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
       <c r="G515" s="11"/>
     </row>
-    <row r="516" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
       <c r="G516" s="11"/>
     </row>
-    <row r="517" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C517" s="11"/>
       <c r="D517" s="11"/>
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
       <c r="G517" s="11"/>
     </row>
-    <row r="518" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
       <c r="G518" s="11"/>
     </row>
-    <row r="519" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
       <c r="G519" s="11"/>
     </row>
-    <row r="520" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
       <c r="G520" s="11"/>
     </row>
-    <row r="521" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
       <c r="G521" s="11"/>
     </row>
-    <row r="522" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C522" s="11"/>
       <c r="D522" s="11"/>
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
       <c r="G522" s="11"/>
     </row>
-    <row r="523" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
       <c r="G523" s="11"/>
     </row>
-    <row r="524" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
       <c r="G524" s="11"/>
     </row>
-    <row r="525" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
       <c r="G525" s="11"/>
     </row>
-    <row r="526" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
       <c r="G526" s="11"/>
     </row>
-    <row r="527" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
       <c r="G527" s="11"/>
     </row>
-    <row r="528" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
       <c r="G528" s="11"/>
     </row>
-    <row r="529" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
       <c r="G529" s="11"/>
     </row>
-    <row r="530" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
       <c r="G530" s="11"/>
     </row>
-    <row r="531" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C531" s="11"/>
       <c r="D531" s="11"/>
       <c r="E531" s="11"/>
       <c r="F531" s="11"/>
       <c r="G531" s="11"/>
     </row>
-    <row r="532" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C532" s="11"/>
       <c r="D532" s="11"/>
       <c r="E532" s="11"/>
       <c r="F532" s="11"/>
       <c r="G532" s="11"/>
     </row>
-    <row r="533" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
       <c r="E533" s="11"/>
       <c r="F533" s="11"/>
       <c r="G533" s="11"/>
     </row>
-    <row r="534" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C534" s="11"/>
       <c r="D534" s="11"/>
       <c r="E534" s="11"/>
       <c r="F534" s="11"/>
       <c r="G534" s="11"/>
     </row>
-    <row r="535" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
       <c r="E535" s="11"/>
       <c r="F535" s="11"/>
       <c r="G535" s="11"/>
     </row>
-    <row r="536" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
       <c r="E536" s="11"/>
       <c r="F536" s="11"/>
       <c r="G536" s="11"/>
     </row>
-    <row r="537" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
       <c r="E537" s="11"/>
       <c r="F537" s="11"/>
       <c r="G537" s="11"/>
     </row>
-    <row r="538" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
       <c r="E538" s="11"/>
       <c r="F538" s="11"/>
       <c r="G538" s="11"/>
     </row>
-    <row r="539" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
       <c r="E539" s="11"/>
       <c r="F539" s="11"/>
       <c r="G539" s="11"/>
     </row>
-    <row r="540" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C540" s="11"/>
       <c r="D540" s="11"/>
       <c r="E540" s="11"/>
       <c r="F540" s="11"/>
       <c r="G540" s="11"/>
     </row>
-    <row r="541" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C541" s="11"/>
       <c r="D541" s="11"/>
       <c r="E541" s="11"/>
       <c r="F541" s="11"/>
       <c r="G541" s="11"/>
     </row>
-    <row r="542" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
       <c r="E542" s="11"/>
       <c r="F542" s="11"/>
       <c r="G542" s="11"/>
     </row>
-    <row r="543" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C543" s="11"/>
       <c r="D543" s="11"/>
       <c r="E543" s="11"/>
       <c r="F543" s="11"/>
       <c r="G543" s="11"/>
     </row>
-    <row r="544" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
       <c r="E544" s="11"/>
       <c r="F544" s="11"/>
       <c r="G544" s="11"/>
     </row>
-    <row r="545" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
       <c r="E545" s="11"/>
       <c r="F545" s="11"/>
       <c r="G545" s="11"/>
     </row>
-    <row r="546" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C546" s="11"/>
       <c r="D546" s="11"/>
       <c r="E546" s="11"/>
       <c r="F546" s="11"/>
       <c r="G546" s="11"/>
     </row>
-    <row r="547" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C547" s="11"/>
       <c r="D547" s="11"/>
       <c r="E547" s="11"/>
       <c r="F547" s="11"/>
       <c r="G547" s="11"/>
     </row>
-    <row r="548" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
       <c r="E548" s="11"/>
       <c r="F548" s="11"/>
       <c r="G548" s="11"/>
     </row>
-    <row r="549" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
       <c r="E549" s="11"/>
       <c r="F549" s="11"/>
       <c r="G549" s="11"/>
     </row>
-    <row r="550" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
       <c r="E550" s="11"/>
       <c r="F550" s="11"/>
       <c r="G550" s="11"/>
     </row>
-    <row r="551" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
       <c r="E551" s="11"/>
       <c r="F551" s="11"/>
       <c r="G551" s="11"/>
     </row>
-    <row r="552" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C552" s="11"/>
       <c r="D552" s="11"/>
       <c r="E552" s="11"/>
       <c r="F552" s="11"/>
       <c r="G552" s="11"/>
     </row>
-    <row r="553" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C553" s="11"/>
       <c r="D553" s="11"/>
       <c r="E553" s="11"/>
       <c r="F553" s="11"/>
       <c r="G553" s="11"/>
     </row>
-    <row r="554" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C554" s="11"/>
       <c r="D554" s="11"/>
       <c r="E554" s="11"/>
       <c r="F554" s="11"/>
       <c r="G554" s="11"/>
     </row>
-    <row r="555" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
       <c r="E555" s="11"/>
       <c r="F555" s="11"/>
       <c r="G555" s="11"/>
     </row>
-    <row r="556" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C556" s="11"/>
       <c r="D556" s="11"/>
       <c r="E556" s="11"/>
       <c r="F556" s="11"/>
       <c r="G556" s="11"/>
     </row>
-    <row r="557" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
       <c r="E557" s="11"/>
       <c r="F557" s="11"/>
       <c r="G557" s="11"/>
     </row>
-    <row r="558" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
       <c r="E558" s="11"/>
       <c r="F558" s="11"/>
       <c r="G558" s="11"/>
     </row>
-    <row r="559" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
       <c r="E559" s="11"/>
       <c r="F559" s="11"/>
       <c r="G559" s="11"/>
     </row>
-    <row r="560" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C560" s="11"/>
       <c r="D560" s="11"/>
       <c r="E560" s="11"/>
       <c r="F560" s="11"/>
       <c r="G560" s="11"/>
     </row>
-    <row r="561" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C561" s="11"/>
       <c r="D561" s="11"/>
       <c r="E561" s="11"/>
       <c r="F561" s="11"/>
       <c r="G561" s="11"/>
     </row>
-    <row r="562" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C562" s="11"/>
       <c r="D562" s="11"/>
       <c r="E562" s="11"/>
       <c r="F562" s="11"/>
       <c r="G562" s="11"/>
     </row>
-    <row r="563" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C563" s="11"/>
       <c r="D563" s="11"/>
       <c r="E563" s="11"/>
       <c r="F563" s="11"/>
       <c r="G563" s="11"/>
     </row>
-    <row r="564" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C564" s="11"/>
       <c r="D564" s="11"/>
       <c r="E564" s="11"/>
       <c r="F564" s="11"/>
       <c r="G564" s="11"/>
     </row>
-    <row r="565" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C565" s="11"/>
       <c r="D565" s="11"/>
       <c r="E565" s="11"/>
       <c r="F565" s="11"/>
       <c r="G565" s="11"/>
     </row>
-    <row r="566" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C566" s="11"/>
       <c r="D566" s="11"/>
       <c r="E566" s="11"/>
       <c r="F566" s="11"/>
       <c r="G566" s="11"/>
     </row>
-    <row r="567" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C567" s="11"/>
       <c r="D567" s="11"/>
       <c r="E567" s="11"/>
       <c r="F567" s="11"/>
       <c r="G567" s="11"/>
     </row>
-    <row r="568" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C568" s="11"/>
       <c r="D568" s="11"/>
       <c r="E568" s="11"/>
       <c r="F568" s="11"/>
       <c r="G568" s="11"/>
     </row>
-    <row r="569" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C569" s="11"/>
       <c r="D569" s="11"/>
       <c r="E569" s="11"/>
       <c r="F569" s="11"/>
       <c r="G569" s="11"/>
     </row>
-    <row r="570" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C570" s="11"/>
       <c r="D570" s="11"/>
       <c r="E570" s="11"/>
       <c r="F570" s="11"/>
       <c r="G570" s="11"/>
     </row>
-    <row r="571" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C571" s="11"/>
       <c r="D571" s="11"/>
       <c r="E571" s="11"/>
       <c r="F571" s="11"/>
       <c r="G571" s="11"/>
     </row>
-    <row r="572" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C572" s="11"/>
       <c r="D572" s="11"/>
       <c r="E572" s="11"/>
       <c r="F572" s="11"/>
       <c r="G572" s="11"/>
     </row>
-    <row r="573" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C573" s="11"/>
       <c r="D573" s="11"/>
       <c r="E573" s="11"/>
       <c r="F573" s="11"/>
       <c r="G573" s="11"/>
     </row>
-    <row r="574" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C574" s="11"/>
       <c r="D574" s="11"/>
       <c r="E574" s="11"/>
       <c r="F574" s="11"/>
       <c r="G574" s="11"/>
     </row>
-    <row r="575" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C575" s="11"/>
       <c r="D575" s="11"/>
       <c r="E575" s="11"/>
       <c r="F575" s="11"/>
       <c r="G575" s="11"/>
     </row>
-    <row r="576" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C576" s="11"/>
       <c r="D576" s="11"/>
       <c r="E576" s="11"/>
       <c r="F576" s="11"/>
       <c r="G576" s="11"/>
     </row>
-    <row r="577" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C577" s="11"/>
       <c r="D577" s="11"/>
       <c r="E577" s="11"/>
       <c r="F577" s="11"/>
       <c r="G577" s="11"/>
     </row>
-    <row r="578" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C578" s="11"/>
       <c r="D578" s="11"/>
       <c r="E578" s="11"/>
       <c r="F578" s="11"/>
       <c r="G578" s="11"/>
     </row>
-    <row r="579" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C579" s="11"/>
       <c r="D579" s="11"/>
       <c r="E579" s="11"/>
       <c r="F579" s="11"/>
       <c r="G579" s="11"/>
     </row>
-    <row r="580" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C580" s="11"/>
       <c r="D580" s="11"/>
       <c r="E580" s="11"/>
       <c r="F580" s="11"/>
       <c r="G580" s="11"/>
     </row>
-    <row r="581" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C581" s="11"/>
       <c r="D581" s="11"/>
       <c r="E581" s="11"/>
       <c r="F581" s="11"/>
       <c r="G581" s="11"/>
     </row>
-    <row r="582" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C582" s="11"/>
       <c r="D582" s="11"/>
       <c r="E582" s="11"/>
       <c r="F582" s="11"/>
       <c r="G582" s="11"/>
     </row>
-    <row r="583" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C583" s="11"/>
       <c r="D583" s="11"/>
       <c r="E583" s="11"/>
       <c r="F583" s="11"/>
       <c r="G583" s="11"/>
     </row>
-    <row r="584" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C584" s="11"/>
       <c r="D584" s="11"/>
       <c r="E584" s="11"/>
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
     </row>
-    <row r="585" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
       <c r="E585" s="11"/>
       <c r="F585" s="11"/>
       <c r="G585" s="11"/>
     </row>
-    <row r="586" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C586" s="11"/>
       <c r="D586" s="11"/>
       <c r="E586" s="11"/>
       <c r="F586" s="11"/>
       <c r="G586" s="11"/>
     </row>
-    <row r="587" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C587" s="11"/>
       <c r="D587" s="11"/>
       <c r="E587" s="11"/>
       <c r="F587" s="11"/>
       <c r="G587" s="11"/>
     </row>
-    <row r="588" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
       <c r="E588" s="11"/>
       <c r="F588" s="11"/>
       <c r="G588" s="11"/>
     </row>
-    <row r="589" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C589" s="11"/>
       <c r="D589" s="11"/>
       <c r="E589" s="11"/>
       <c r="F589" s="11"/>
       <c r="G589" s="11"/>
     </row>
-    <row r="590" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C590" s="11"/>
       <c r="D590" s="11"/>
       <c r="E590" s="11"/>
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
     </row>
-    <row r="591" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C591" s="11"/>
       <c r="D591" s="11"/>
       <c r="E591" s="11"/>
       <c r="F591" s="11"/>
       <c r="G591" s="11"/>
     </row>
-    <row r="592" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C592" s="11"/>
       <c r="D592" s="11"/>
       <c r="E592" s="11"/>
       <c r="F592" s="11"/>
       <c r="G592" s="11"/>
     </row>
-    <row r="593" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C593" s="11"/>
       <c r="D593" s="11"/>
       <c r="E593" s="11"/>
       <c r="F593" s="11"/>
       <c r="G593" s="11"/>
     </row>
-    <row r="594" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C594" s="11"/>
       <c r="D594" s="11"/>
       <c r="E594" s="11"/>
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
     </row>
-    <row r="595" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C595" s="11"/>
       <c r="D595" s="11"/>
       <c r="E595" s="11"/>
       <c r="F595" s="11"/>
       <c r="G595" s="11"/>
     </row>
-    <row r="596" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C596" s="11"/>
       <c r="D596" s="11"/>
       <c r="E596" s="11"/>
       <c r="F596" s="11"/>
       <c r="G596" s="11"/>
     </row>
-    <row r="597" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C597" s="11"/>
       <c r="D597" s="11"/>
       <c r="E597" s="11"/>
       <c r="F597" s="11"/>
       <c r="G597" s="11"/>
     </row>
-    <row r="598" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11"/>
       <c r="F598" s="11"/>
       <c r="G598" s="11"/>
     </row>
-    <row r="599" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C599" s="11"/>
       <c r="D599" s="11"/>
       <c r="E599" s="11"/>
       <c r="F599" s="11"/>
       <c r="G599" s="11"/>
     </row>
-    <row r="600" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
       <c r="F600" s="11"/>
       <c r="G600" s="11"/>
     </row>
-    <row r="601" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C601" s="11"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
       <c r="F601" s="11"/>
       <c r="G601" s="11"/>
     </row>
-    <row r="602" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
       <c r="F602" s="11"/>
       <c r="G602" s="11"/>
     </row>
-    <row r="603" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C603" s="11"/>
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
       <c r="F603" s="11"/>
       <c r="G603" s="11"/>
     </row>
-    <row r="604" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C604" s="11"/>
       <c r="D604" s="11"/>
       <c r="E604" s="11"/>
       <c r="F604" s="11"/>
       <c r="G604" s="11"/>
     </row>
-    <row r="605" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C605" s="11"/>
       <c r="D605" s="11"/>
       <c r="E605" s="11"/>
       <c r="F605" s="11"/>
       <c r="G605" s="11"/>
     </row>
-    <row r="606" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C606" s="11"/>
       <c r="D606" s="11"/>
       <c r="E606" s="11"/>
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
     </row>
-    <row r="607" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C607" s="11"/>
       <c r="D607" s="11"/>
       <c r="E607" s="11"/>
       <c r="F607" s="11"/>
       <c r="G607" s="11"/>
     </row>
-    <row r="608" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C608" s="11"/>
       <c r="D608" s="11"/>
       <c r="E608" s="11"/>
       <c r="F608" s="11"/>
       <c r="G608" s="11"/>
     </row>
-    <row r="609" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
       <c r="E609" s="11"/>
       <c r="F609" s="11"/>
       <c r="G609" s="11"/>
     </row>
-    <row r="610" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C610" s="11"/>
       <c r="D610" s="11"/>
       <c r="E610" s="11"/>
       <c r="F610" s="11"/>
       <c r="G610" s="11"/>
     </row>
-    <row r="611" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
       <c r="E611" s="11"/>
       <c r="F611" s="11"/>
       <c r="G611" s="11"/>
     </row>
-    <row r="612" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
       <c r="E612" s="11"/>
       <c r="F612" s="11"/>
       <c r="G612" s="11"/>
     </row>
-    <row r="613" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C613" s="11"/>
       <c r="D613" s="11"/>
       <c r="E613" s="11"/>
       <c r="F613" s="11"/>
       <c r="G613" s="11"/>
     </row>
-    <row r="614" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
       <c r="F614" s="11"/>
       <c r="G614" s="11"/>
     </row>
-    <row r="615" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
       <c r="E615" s="11"/>
       <c r="F615" s="11"/>
       <c r="G615" s="11"/>
     </row>
-    <row r="616" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
       <c r="F616" s="11"/>
       <c r="G616" s="11"/>
     </row>
-    <row r="617" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
       <c r="F617" s="11"/>
       <c r="G617" s="11"/>
     </row>
-    <row r="618" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
       <c r="F618" s="11"/>
       <c r="G618" s="11"/>
     </row>
-    <row r="619" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
       <c r="F619" s="11"/>
       <c r="G619" s="11"/>
     </row>
-    <row r="620" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
       <c r="F620" s="11"/>
       <c r="G620" s="11"/>
     </row>
-    <row r="621" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
       <c r="F621" s="11"/>
       <c r="G621" s="11"/>
     </row>
-    <row r="622" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C622" s="11"/>
       <c r="D622" s="11"/>
       <c r="E622" s="11"/>
       <c r="F622" s="11"/>
       <c r="G622" s="11"/>
     </row>
-    <row r="623" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C623" s="11"/>
       <c r="D623" s="11"/>
       <c r="E623" s="11"/>
       <c r="F623" s="11"/>
       <c r="G623" s="11"/>
     </row>
-    <row r="624" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C624" s="11"/>
       <c r="D624" s="11"/>
       <c r="E624" s="11"/>
       <c r="F624" s="11"/>
       <c r="G624" s="11"/>
     </row>
-    <row r="625" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C625" s="11"/>
       <c r="D625" s="11"/>
       <c r="E625" s="11"/>
       <c r="F625" s="11"/>
       <c r="G625" s="11"/>
     </row>
-    <row r="626" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C626" s="11"/>
       <c r="D626" s="11"/>
       <c r="E626" s="11"/>
       <c r="F626" s="11"/>
       <c r="G626" s="11"/>
     </row>
-    <row r="627" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C627" s="11"/>
       <c r="D627" s="11"/>
       <c r="E627" s="11"/>
       <c r="F627" s="11"/>
       <c r="G627" s="11"/>
     </row>
-    <row r="628" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C628" s="11"/>
       <c r="D628" s="11"/>
       <c r="E628" s="11"/>
       <c r="F628" s="11"/>
       <c r="G628" s="11"/>
     </row>
-    <row r="629" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C629" s="11"/>
       <c r="D629" s="11"/>
       <c r="E629" s="11"/>
       <c r="F629" s="11"/>
       <c r="G629" s="11"/>
     </row>
-    <row r="630" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C630" s="11"/>
       <c r="D630" s="11"/>
       <c r="E630" s="11"/>
       <c r="F630" s="11"/>
       <c r="G630" s="11"/>
     </row>
-    <row r="631" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C631" s="11"/>
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
       <c r="F631" s="11"/>
       <c r="G631" s="11"/>
     </row>
-    <row r="632" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C632" s="11"/>
       <c r="D632" s="11"/>
       <c r="E632" s="11"/>
       <c r="F632" s="11"/>
       <c r="G632" s="11"/>
     </row>
-    <row r="633" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C633" s="11"/>
       <c r="D633" s="11"/>
       <c r="E633" s="11"/>
       <c r="F633" s="11"/>
       <c r="G633" s="11"/>
     </row>
-    <row r="634" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C634" s="11"/>
       <c r="D634" s="11"/>
       <c r="E634" s="11"/>
       <c r="F634" s="11"/>
       <c r="G634" s="11"/>
     </row>
-    <row r="635" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C635" s="11"/>
       <c r="D635" s="11"/>
       <c r="E635" s="11"/>
       <c r="F635" s="11"/>
       <c r="G635" s="11"/>
     </row>
-    <row r="636" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C636" s="11"/>
       <c r="D636" s="11"/>
       <c r="E636" s="11"/>
       <c r="F636" s="11"/>
       <c r="G636" s="11"/>
     </row>
-    <row r="637" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
       <c r="F637" s="11"/>
       <c r="G637" s="11"/>
     </row>
-    <row r="638" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C638" s="11"/>
       <c r="D638" s="11"/>
       <c r="E638" s="11"/>
       <c r="F638" s="11"/>
       <c r="G638" s="11"/>
     </row>
-    <row r="639" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C639" s="11"/>
       <c r="D639" s="11"/>
       <c r="E639" s="11"/>
       <c r="F639" s="11"/>
       <c r="G639" s="11"/>
     </row>
-    <row r="640" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
       <c r="F640" s="11"/>
       <c r="G640" s="11"/>
     </row>
-    <row r="641" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
       <c r="F641" s="11"/>
       <c r="G641" s="11"/>
     </row>
-    <row r="642" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C642" s="11"/>
       <c r="D642" s="11"/>
       <c r="E642" s="11"/>
       <c r="F642" s="11"/>
       <c r="G642" s="11"/>
     </row>
-    <row r="643" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C643" s="11"/>
       <c r="D643" s="11"/>
       <c r="E643" s="11"/>
       <c r="F643" s="11"/>
       <c r="G643" s="11"/>
     </row>
-    <row r="644" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C644" s="11"/>
       <c r="D644" s="11"/>
       <c r="E644" s="11"/>
       <c r="F644" s="11"/>
       <c r="G644" s="11"/>
     </row>
-    <row r="645" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C645" s="11"/>
       <c r="D645" s="11"/>
       <c r="E645" s="11"/>
       <c r="F645" s="11"/>
       <c r="G645" s="11"/>
     </row>
-    <row r="646" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C646" s="11"/>
       <c r="D646" s="11"/>
       <c r="E646" s="11"/>
       <c r="F646" s="11"/>
       <c r="G646" s="11"/>
     </row>
-    <row r="647" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C647" s="11"/>
       <c r="D647" s="11"/>
       <c r="E647" s="11"/>
       <c r="F647" s="11"/>
       <c r="G647" s="11"/>
     </row>
-    <row r="648" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C648" s="11"/>
       <c r="D648" s="11"/>
       <c r="E648" s="11"/>
       <c r="F648" s="11"/>
       <c r="G648" s="11"/>
     </row>
-    <row r="649" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C649" s="11"/>
       <c r="D649" s="11"/>
       <c r="E649" s="11"/>
       <c r="F649" s="11"/>
       <c r="G649" s="11"/>
     </row>
-    <row r="650" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C650" s="11"/>
       <c r="D650" s="11"/>
       <c r="E650" s="11"/>
       <c r="F650" s="11"/>
       <c r="G650" s="11"/>
     </row>
-    <row r="651" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C651" s="11"/>
       <c r="D651" s="11"/>
       <c r="E651" s="11"/>
       <c r="F651" s="11"/>
       <c r="G651" s="11"/>
     </row>
-    <row r="652" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C652" s="11"/>
       <c r="D652" s="11"/>
       <c r="E652" s="11"/>
       <c r="F652" s="11"/>
       <c r="G652" s="11"/>
     </row>
-    <row r="653" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C653" s="11"/>
       <c r="D653" s="11"/>
       <c r="E653" s="11"/>
       <c r="F653" s="11"/>
       <c r="G653" s="11"/>
     </row>
-    <row r="654" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C654" s="11"/>
       <c r="D654" s="11"/>
       <c r="E654" s="11"/>
       <c r="F654" s="11"/>
       <c r="G654" s="11"/>
     </row>
-    <row r="655" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C655" s="11"/>
       <c r="D655" s="11"/>
       <c r="E655" s="11"/>
       <c r="F655" s="11"/>
       <c r="G655" s="11"/>
     </row>
-    <row r="656" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C656" s="11"/>
       <c r="D656" s="11"/>
       <c r="E656" s="11"/>
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
     </row>
-    <row r="657" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
       <c r="F657" s="11"/>
       <c r="G657" s="11"/>
     </row>
-    <row r="658" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
       <c r="F658" s="11"/>
       <c r="G658" s="11"/>
     </row>
-    <row r="659" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C659" s="11"/>
       <c r="D659" s="11"/>
       <c r="E659" s="11"/>
       <c r="F659" s="11"/>
       <c r="G659" s="11"/>
     </row>
-    <row r="660" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C660" s="11"/>
       <c r="D660" s="11"/>
       <c r="E660" s="11"/>
       <c r="F660" s="11"/>
       <c r="G660" s="11"/>
     </row>
-    <row r="661" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C661" s="11"/>
       <c r="D661" s="11"/>
       <c r="E661" s="11"/>
       <c r="F661" s="11"/>
       <c r="G661" s="11"/>
     </row>
-    <row r="662" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C662" s="11"/>
       <c r="D662" s="11"/>
       <c r="E662" s="11"/>
       <c r="F662" s="11"/>
       <c r="G662" s="11"/>
     </row>
-    <row r="663" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C663" s="11"/>
       <c r="D663" s="11"/>
       <c r="E663" s="11"/>
       <c r="F663" s="11"/>
       <c r="G663" s="11"/>
     </row>
-    <row r="664" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
       <c r="F664" s="11"/>
       <c r="G664" s="11"/>
     </row>
-    <row r="665" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
       <c r="F665" s="11"/>
       <c r="G665" s="11"/>
     </row>
-    <row r="666" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
       <c r="F666" s="11"/>
       <c r="G666" s="11"/>
     </row>
-    <row r="667" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
       <c r="F667" s="11"/>
       <c r="G667" s="11"/>
     </row>
-    <row r="668" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
       <c r="F668" s="11"/>
       <c r="G668" s="11"/>
     </row>
-    <row r="669" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
       <c r="F669" s="11"/>
       <c r="G669" s="11"/>
     </row>
-    <row r="670" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
       <c r="F670" s="11"/>
       <c r="G670" s="11"/>
     </row>
-    <row r="671" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
       <c r="F671" s="11"/>
       <c r="G671" s="11"/>
     </row>
-    <row r="672" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11"/>
       <c r="F672" s="11"/>
       <c r="G672" s="11"/>
     </row>
-    <row r="673" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11"/>
       <c r="F673" s="11"/>
       <c r="G673" s="11"/>
     </row>
-    <row r="674" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
       <c r="F674" s="11"/>
       <c r="G674" s="11"/>
     </row>
-    <row r="675" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
       <c r="F675" s="11"/>
       <c r="G675" s="11"/>
     </row>
-    <row r="676" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
       <c r="E676" s="11"/>
       <c r="F676" s="11"/>
       <c r="G676" s="11"/>
     </row>
-    <row r="677" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
       <c r="F677" s="11"/>
       <c r="G677" s="11"/>
     </row>
-    <row r="678" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
       <c r="F678" s="11"/>
       <c r="G678" s="11"/>
     </row>
-    <row r="679" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
       <c r="F679" s="11"/>
       <c r="G679" s="11"/>
     </row>
-    <row r="680" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
       <c r="F680" s="11"/>
       <c r="G680" s="11"/>
     </row>
-    <row r="681" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
       <c r="F681" s="11"/>
       <c r="G681" s="11"/>
     </row>
-    <row r="682" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C682" s="11"/>
       <c r="D682" s="11"/>
       <c r="E682" s="11"/>
       <c r="F682" s="11"/>
       <c r="G682" s="11"/>
     </row>
-    <row r="683" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
       <c r="F683" s="11"/>
       <c r="G683" s="11"/>
     </row>
-    <row r="684" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C684" s="11"/>
       <c r="D684" s="11"/>
       <c r="E684" s="11"/>
       <c r="F684" s="11"/>
       <c r="G684" s="11"/>
     </row>
-    <row r="685" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C685" s="11"/>
       <c r="D685" s="11"/>
       <c r="E685" s="11"/>
       <c r="F685" s="11"/>
       <c r="G685" s="11"/>
     </row>
-    <row r="686" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C686" s="11"/>
       <c r="D686" s="11"/>
       <c r="E686" s="11"/>
       <c r="F686" s="11"/>
       <c r="G686" s="11"/>
     </row>
-    <row r="687" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C687" s="11"/>
       <c r="D687" s="11"/>
       <c r="E687" s="11"/>
       <c r="F687" s="11"/>
       <c r="G687" s="11"/>
     </row>
-    <row r="688" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C688" s="11"/>
       <c r="D688" s="11"/>
       <c r="E688" s="11"/>
       <c r="F688" s="11"/>
       <c r="G688" s="11"/>
     </row>
-    <row r="689" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C689" s="11"/>
       <c r="D689" s="11"/>
       <c r="E689" s="11"/>
       <c r="F689" s="11"/>
       <c r="G689" s="11"/>
     </row>
-    <row r="690" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C690" s="11"/>
       <c r="D690" s="11"/>
       <c r="E690" s="11"/>
       <c r="F690" s="11"/>
       <c r="G690" s="11"/>
     </row>
-    <row r="691" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C691" s="11"/>
       <c r="D691" s="11"/>
       <c r="E691" s="11"/>
       <c r="F691" s="11"/>
       <c r="G691" s="11"/>
     </row>
-    <row r="692" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C692" s="11"/>
       <c r="D692" s="11"/>
       <c r="E692" s="11"/>
       <c r="F692" s="11"/>
       <c r="G692" s="11"/>
     </row>
-    <row r="693" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C693" s="11"/>
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
       <c r="F693" s="11"/>
       <c r="G693" s="11"/>
     </row>
-    <row r="694" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C694" s="11"/>
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
       <c r="F694" s="11"/>
       <c r="G694" s="11"/>
     </row>
-    <row r="695" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C695" s="11"/>
       <c r="D695" s="11"/>
       <c r="E695" s="11"/>
       <c r="F695" s="11"/>
       <c r="G695" s="11"/>
     </row>
-    <row r="696" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C696" s="11"/>
       <c r="D696" s="11"/>
       <c r="E696" s="11"/>
       <c r="F696" s="11"/>
       <c r="G696" s="11"/>
     </row>
-    <row r="697" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C697" s="11"/>
       <c r="D697" s="11"/>
       <c r="E697" s="11"/>
       <c r="F697" s="11"/>
       <c r="G697" s="11"/>
     </row>
-    <row r="698" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C698" s="11"/>
       <c r="D698" s="11"/>
       <c r="E698" s="11"/>
       <c r="F698" s="11"/>
       <c r="G698" s="11"/>
     </row>
-    <row r="699" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C699" s="11"/>
       <c r="D699" s="11"/>
       <c r="E699" s="11"/>
       <c r="F699" s="11"/>
       <c r="G699" s="11"/>
     </row>
-    <row r="700" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C700" s="11"/>
       <c r="D700" s="11"/>
       <c r="E700" s="11"/>
       <c r="F700" s="11"/>
       <c r="G700" s="11"/>
     </row>
-    <row r="701" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C701" s="11"/>
       <c r="D701" s="11"/>
       <c r="E701" s="11"/>
       <c r="F701" s="11"/>
       <c r="G701" s="11"/>
     </row>
-    <row r="702" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C702" s="11"/>
       <c r="D702" s="11"/>
       <c r="E702" s="11"/>
       <c r="F702" s="11"/>
       <c r="G702" s="11"/>
     </row>
-    <row r="703" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C703" s="11"/>
       <c r="D703" s="11"/>
       <c r="E703" s="11"/>
       <c r="F703" s="11"/>
       <c r="G703" s="11"/>
     </row>
-    <row r="704" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C704" s="11"/>
       <c r="D704" s="11"/>
       <c r="E704" s="11"/>
       <c r="F704" s="11"/>
       <c r="G704" s="11"/>
     </row>
-    <row r="705" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C705" s="11"/>
       <c r="D705" s="11"/>
       <c r="E705" s="11"/>
       <c r="F705" s="11"/>
       <c r="G705" s="11"/>
     </row>
-    <row r="706" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C706" s="11"/>
       <c r="D706" s="11"/>
       <c r="E706" s="11"/>
       <c r="F706" s="11"/>
       <c r="G706" s="11"/>
     </row>
-    <row r="707" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C707" s="11"/>
       <c r="D707" s="11"/>
       <c r="E707" s="11"/>
       <c r="F707" s="11"/>
       <c r="G707" s="11"/>
     </row>
-    <row r="708" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C708" s="11"/>
       <c r="D708" s="11"/>
       <c r="E708" s="11"/>
       <c r="F708" s="11"/>
       <c r="G708" s="11"/>
     </row>
-    <row r="709" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C709" s="11"/>
       <c r="D709" s="11"/>
       <c r="E709" s="11"/>
       <c r="F709" s="11"/>
       <c r="G709" s="11"/>
     </row>
-    <row r="710" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C710" s="11"/>
       <c r="D710" s="11"/>
       <c r="E710" s="11"/>
       <c r="F710" s="11"/>
       <c r="G710" s="11"/>
     </row>
-    <row r="711" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C711" s="11"/>
       <c r="D711" s="11"/>
       <c r="E711" s="11"/>
       <c r="F711" s="11"/>
       <c r="G711" s="11"/>
     </row>
-    <row r="712" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C712" s="11"/>
       <c r="D712" s="11"/>
       <c r="E712" s="11"/>
       <c r="F712" s="11"/>
       <c r="G712" s="11"/>
     </row>
-    <row r="713" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C713" s="11"/>
       <c r="D713" s="11"/>
       <c r="E713" s="11"/>
       <c r="F713" s="11"/>
       <c r="G713" s="11"/>
     </row>
-    <row r="714" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C714" s="11"/>
       <c r="D714" s="11"/>
       <c r="E714" s="11"/>
       <c r="F714" s="11"/>
       <c r="G714" s="11"/>
     </row>
-    <row r="715" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C715" s="11"/>
       <c r="D715" s="11"/>
       <c r="E715" s="11"/>
       <c r="F715" s="11"/>
       <c r="G715" s="11"/>
     </row>
-    <row r="716" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C716" s="11"/>
       <c r="D716" s="11"/>
       <c r="E716" s="11"/>
       <c r="F716" s="11"/>
       <c r="G716" s="11"/>
     </row>
-    <row r="717" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C717" s="11"/>
       <c r="D717" s="11"/>
       <c r="E717" s="11"/>
       <c r="F717" s="11"/>
       <c r="G717" s="11"/>
     </row>
-    <row r="718" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C718" s="11"/>
       <c r="D718" s="11"/>
       <c r="E718" s="11"/>
       <c r="F718" s="11"/>
       <c r="G718" s="11"/>
     </row>
-    <row r="719" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C719" s="11"/>
       <c r="D719" s="11"/>
       <c r="E719" s="11"/>
       <c r="F719" s="11"/>
       <c r="G719" s="11"/>
     </row>
-    <row r="720" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C720" s="11"/>
       <c r="D720" s="11"/>
       <c r="E720" s="11"/>
       <c r="F720" s="11"/>
       <c r="G720" s="11"/>
     </row>
-    <row r="721" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C721" s="11"/>
       <c r="D721" s="11"/>
       <c r="E721" s="11"/>
       <c r="F721" s="11"/>
       <c r="G721" s="11"/>
     </row>
-    <row r="722" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C722" s="11"/>
       <c r="D722" s="11"/>
       <c r="E722" s="11"/>
       <c r="F722" s="11"/>
       <c r="G722" s="11"/>
     </row>
-    <row r="723" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C723" s="11"/>
       <c r="D723" s="11"/>
       <c r="E723" s="11"/>
       <c r="F723" s="11"/>
       <c r="G723" s="11"/>
     </row>
-    <row r="724" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C724" s="11"/>
       <c r="D724" s="11"/>
       <c r="E724" s="11"/>
       <c r="F724" s="11"/>
       <c r="G724" s="11"/>
     </row>
-    <row r="725" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C725" s="11"/>
       <c r="D725" s="11"/>
       <c r="E725" s="11"/>
       <c r="F725" s="11"/>
       <c r="G725" s="11"/>
     </row>
-    <row r="726" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C726" s="11"/>
       <c r="D726" s="11"/>
       <c r="E726" s="11"/>
       <c r="F726" s="11"/>
       <c r="G726" s="11"/>
     </row>
-    <row r="727" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C727" s="11"/>
       <c r="D727" s="11"/>
       <c r="E727" s="11"/>
       <c r="F727" s="11"/>
       <c r="G727" s="11"/>
     </row>
-    <row r="728" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C728" s="11"/>
       <c r="D728" s="11"/>
       <c r="E728" s="11"/>
       <c r="F728" s="11"/>
       <c r="G728" s="11"/>
     </row>
-    <row r="729" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C729" s="11"/>
       <c r="D729" s="11"/>
       <c r="E729" s="11"/>
       <c r="F729" s="11"/>
       <c r="G729" s="11"/>
     </row>
-    <row r="730" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C730" s="11"/>
       <c r="D730" s="11"/>
       <c r="E730" s="11"/>
       <c r="F730" s="11"/>
       <c r="G730" s="11"/>
     </row>
-    <row r="731" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C731" s="11"/>
       <c r="D731" s="11"/>
       <c r="E731" s="11"/>
       <c r="F731" s="11"/>
       <c r="G731" s="11"/>
     </row>
-    <row r="732" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C732" s="11"/>
       <c r="D732" s="11"/>
       <c r="E732" s="11"/>
       <c r="F732" s="11"/>
       <c r="G732" s="11"/>
     </row>
-    <row r="733" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C733" s="11"/>
       <c r="D733" s="11"/>
       <c r="E733" s="11"/>
       <c r="F733" s="11"/>
       <c r="G733" s="11"/>
     </row>
-    <row r="734" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C734" s="11"/>
       <c r="D734" s="11"/>
       <c r="E734" s="11"/>
       <c r="F734" s="11"/>
       <c r="G734" s="11"/>
     </row>
-    <row r="735" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C735" s="11"/>
       <c r="D735" s="11"/>
       <c r="E735" s="11"/>
       <c r="F735" s="11"/>
       <c r="G735" s="11"/>
     </row>
-    <row r="736" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C736" s="11"/>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
       <c r="F736" s="11"/>
       <c r="G736" s="11"/>
     </row>
-    <row r="737" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C737" s="11"/>
       <c r="D737" s="11"/>
       <c r="E737" s="11"/>
       <c r="F737" s="11"/>
       <c r="G737" s="11"/>
     </row>
-    <row r="738" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C738" s="11"/>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
       <c r="F738" s="11"/>
       <c r="G738" s="11"/>
     </row>
-    <row r="739" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C739" s="11"/>
       <c r="D739" s="11"/>
       <c r="E739" s="11"/>
       <c r="F739" s="11"/>
       <c r="G739" s="11"/>
     </row>
-    <row r="740" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C740" s="11"/>
       <c r="D740" s="11"/>
       <c r="E740" s="11"/>
       <c r="F740" s="11"/>
       <c r="G740" s="11"/>
     </row>
-    <row r="741" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C741" s="11"/>
       <c r="D741" s="11"/>
       <c r="E741" s="11"/>
       <c r="F741" s="11"/>
       <c r="G741" s="11"/>
     </row>
-    <row r="742" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C742" s="11"/>
       <c r="D742" s="11"/>
       <c r="E742" s="11"/>
       <c r="F742" s="11"/>
       <c r="G742" s="11"/>
     </row>
-    <row r="743" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C743" s="11"/>
       <c r="D743" s="11"/>
       <c r="E743" s="11"/>
       <c r="F743" s="11"/>
       <c r="G743" s="11"/>
     </row>
-    <row r="744" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C744" s="11"/>
       <c r="D744" s="11"/>
       <c r="E744" s="11"/>
       <c r="F744" s="11"/>
       <c r="G744" s="11"/>
     </row>
-    <row r="745" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C745" s="11"/>
       <c r="D745" s="11"/>
       <c r="E745" s="11"/>
       <c r="F745" s="11"/>
       <c r="G745" s="11"/>
     </row>
-    <row r="746" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C746" s="11"/>
       <c r="D746" s="11"/>
       <c r="E746" s="11"/>
       <c r="F746" s="11"/>
       <c r="G746" s="11"/>
     </row>
-    <row r="747" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C747" s="11"/>
       <c r="D747" s="11"/>
       <c r="E747" s="11"/>
       <c r="F747" s="11"/>
       <c r="G747" s="11"/>
     </row>
-    <row r="748" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C748" s="11"/>
       <c r="D748" s="11"/>
       <c r="E748" s="11"/>
       <c r="F748" s="11"/>
       <c r="G748" s="11"/>
     </row>
-    <row r="749" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C749" s="11"/>
       <c r="D749" s="11"/>
       <c r="E749" s="11"/>
       <c r="F749" s="11"/>
       <c r="G749" s="11"/>
     </row>
-    <row r="750" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C750" s="11"/>
       <c r="D750" s="11"/>
       <c r="E750" s="11"/>
       <c r="F750" s="11"/>
       <c r="G750" s="11"/>
     </row>
-    <row r="751" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C751" s="11"/>
       <c r="D751" s="11"/>
       <c r="E751" s="11"/>
       <c r="F751" s="11"/>
       <c r="G751" s="11"/>
     </row>
-    <row r="752" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C752" s="11"/>
       <c r="D752" s="11"/>
       <c r="E752" s="11"/>
       <c r="F752" s="11"/>
       <c r="G752" s="11"/>
     </row>
-    <row r="753" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C753" s="11"/>
       <c r="D753" s="11"/>
       <c r="E753" s="11"/>
       <c r="F753" s="11"/>
       <c r="G753" s="11"/>
     </row>
-    <row r="754" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C754" s="11"/>
       <c r="D754" s="11"/>
       <c r="E754" s="11"/>
       <c r="F754" s="11"/>
       <c r="G754" s="11"/>
     </row>
-    <row r="755" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C755" s="11"/>
       <c r="D755" s="11"/>
       <c r="E755" s="11"/>
       <c r="F755" s="11"/>
       <c r="G755" s="11"/>
     </row>
-    <row r="756" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C756" s="11"/>
       <c r="D756" s="11"/>
       <c r="E756" s="11"/>
       <c r="F756" s="11"/>
       <c r="G756" s="11"/>
     </row>
-    <row r="757" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C757" s="11"/>
       <c r="D757" s="11"/>
       <c r="E757" s="11"/>
       <c r="F757" s="11"/>
       <c r="G757" s="11"/>
     </row>
-    <row r="758" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C758" s="11"/>
       <c r="D758" s="11"/>
       <c r="E758" s="11"/>
       <c r="F758" s="11"/>
       <c r="G758" s="11"/>
     </row>
-    <row r="759" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C759" s="11"/>
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
       <c r="F759" s="11"/>
       <c r="G759" s="11"/>
     </row>
-    <row r="760" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C760" s="11"/>
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
       <c r="F760" s="11"/>
       <c r="G760" s="11"/>
     </row>
-    <row r="761" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C761" s="11"/>
       <c r="D761" s="11"/>
       <c r="E761" s="11"/>
       <c r="F761" s="11"/>
       <c r="G761" s="11"/>
     </row>
-    <row r="762" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C762" s="11"/>
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
       <c r="F762" s="11"/>
       <c r="G762" s="11"/>
     </row>
-    <row r="763" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C763" s="11"/>
       <c r="D763" s="11"/>
       <c r="E763" s="11"/>
       <c r="F763" s="11"/>
       <c r="G763" s="11"/>
     </row>
-    <row r="764" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C764" s="11"/>
       <c r="D764" s="11"/>
       <c r="E764" s="11"/>
       <c r="F764" s="11"/>
       <c r="G764" s="11"/>
     </row>
-    <row r="765" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C765" s="11"/>
       <c r="D765" s="11"/>
       <c r="E765" s="11"/>
       <c r="F765" s="11"/>
       <c r="G765" s="11"/>
     </row>
-    <row r="766" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C766" s="11"/>
       <c r="D766" s="11"/>
       <c r="E766" s="11"/>
       <c r="F766" s="11"/>
       <c r="G766" s="11"/>
     </row>
-    <row r="767" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C767" s="11"/>
       <c r="D767" s="11"/>
       <c r="E767" s="11"/>
       <c r="F767" s="11"/>
       <c r="G767" s="11"/>
     </row>
-    <row r="768" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C768" s="11"/>
       <c r="D768" s="11"/>
       <c r="E768" s="11"/>
       <c r="F768" s="11"/>
       <c r="G768" s="11"/>
     </row>
-    <row r="769" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C769" s="11"/>
       <c r="D769" s="11"/>
       <c r="E769" s="11"/>
       <c r="F769" s="11"/>
       <c r="G769" s="11"/>
     </row>
-    <row r="770" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C770" s="11"/>
       <c r="D770" s="11"/>
       <c r="E770" s="11"/>
       <c r="F770" s="11"/>
       <c r="G770" s="11"/>
     </row>
-    <row r="771" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C771" s="11"/>
       <c r="D771" s="11"/>
       <c r="E771" s="11"/>
       <c r="F771" s="11"/>
       <c r="G771" s="11"/>
     </row>
-    <row r="772" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C772" s="11"/>
       <c r="D772" s="11"/>
       <c r="E772" s="11"/>
       <c r="F772" s="11"/>
       <c r="G772" s="11"/>
     </row>
-    <row r="773" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C773" s="11"/>
       <c r="D773" s="11"/>
       <c r="E773" s="11"/>
       <c r="F773" s="11"/>
       <c r="G773" s="11"/>
     </row>
-    <row r="774" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C774" s="11"/>
       <c r="D774" s="11"/>
       <c r="E774" s="11"/>
       <c r="F774" s="11"/>
       <c r="G774" s="11"/>
     </row>
-    <row r="775" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C775" s="11"/>
       <c r="D775" s="11"/>
       <c r="E775" s="11"/>
       <c r="F775" s="11"/>
       <c r="G775" s="11"/>
     </row>
-    <row r="776" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C776" s="11"/>
       <c r="D776" s="11"/>
       <c r="E776" s="11"/>
       <c r="F776" s="11"/>
       <c r="G776" s="11"/>
     </row>
-    <row r="777" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C777" s="11"/>
       <c r="D777" s="11"/>
       <c r="E777" s="11"/>
       <c r="F777" s="11"/>
       <c r="G777" s="11"/>
     </row>
-    <row r="778" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C778" s="11"/>
       <c r="D778" s="11"/>
       <c r="E778" s="11"/>
       <c r="F778" s="11"/>
       <c r="G778" s="11"/>
     </row>
-    <row r="779" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C779" s="11"/>
       <c r="D779" s="11"/>
       <c r="E779" s="11"/>
       <c r="F779" s="11"/>
       <c r="G779" s="11"/>
     </row>
-    <row r="780" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C780" s="11"/>
       <c r="D780" s="11"/>
       <c r="E780" s="11"/>
       <c r="F780" s="11"/>
       <c r="G780" s="11"/>
     </row>
-    <row r="781" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C781" s="11"/>
       <c r="D781" s="11"/>
       <c r="E781" s="11"/>
       <c r="F781" s="11"/>
       <c r="G781" s="11"/>
     </row>
-    <row r="782" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C782" s="11"/>
       <c r="D782" s="11"/>
       <c r="E782" s="11"/>
       <c r="F782" s="11"/>
       <c r="G782" s="11"/>
     </row>
-    <row r="783" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C783" s="11"/>
       <c r="D783" s="11"/>
       <c r="E783" s="11"/>
       <c r="F783" s="11"/>
       <c r="G783" s="11"/>
     </row>
-    <row r="784" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C784" s="11"/>
       <c r="D784" s="11"/>
       <c r="E784" s="11"/>
       <c r="F784" s="11"/>
       <c r="G784" s="11"/>
     </row>
-    <row r="785" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C785" s="11"/>
       <c r="D785" s="11"/>
       <c r="E785" s="11"/>
       <c r="F785" s="11"/>
       <c r="G785" s="11"/>
     </row>
-    <row r="786" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C786" s="11"/>
       <c r="D786" s="11"/>
       <c r="E786" s="11"/>
       <c r="F786" s="11"/>
       <c r="G786" s="11"/>
     </row>
-    <row r="787" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C787" s="11"/>
       <c r="D787" s="11"/>
       <c r="E787" s="11"/>
       <c r="F787" s="11"/>
       <c r="G787" s="11"/>
     </row>
-    <row r="788" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C788" s="11"/>
       <c r="D788" s="11"/>
       <c r="E788" s="11"/>
       <c r="F788" s="11"/>
       <c r="G788" s="11"/>
     </row>
-    <row r="789" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C789" s="11"/>
       <c r="D789" s="11"/>
       <c r="E789" s="11"/>
       <c r="F789" s="11"/>
       <c r="G789" s="11"/>
     </row>
-    <row r="790" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C790" s="11"/>
       <c r="D790" s="11"/>
       <c r="E790" s="11"/>
       <c r="F790" s="11"/>
       <c r="G790" s="11"/>
     </row>
-    <row r="791" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C791" s="11"/>
       <c r="D791" s="11"/>
       <c r="E791" s="11"/>
       <c r="F791" s="11"/>
       <c r="G791" s="11"/>
     </row>
-    <row r="792" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C792" s="11"/>
       <c r="D792" s="11"/>
       <c r="E792" s="11"/>
       <c r="F792" s="11"/>
       <c r="G792" s="11"/>
     </row>
-    <row r="793" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C793" s="11"/>
       <c r="D793" s="11"/>
       <c r="E793" s="11"/>
       <c r="F793" s="11"/>
       <c r="G793" s="11"/>
     </row>
-    <row r="794" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C794" s="11"/>
       <c r="D794" s="11"/>
       <c r="E794" s="11"/>
       <c r="F794" s="11"/>
       <c r="G794" s="11"/>
     </row>
-    <row r="795" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C795" s="11"/>
       <c r="D795" s="11"/>
       <c r="E795" s="11"/>
       <c r="F795" s="11"/>
       <c r="G795" s="11"/>
     </row>
-    <row r="796" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C796" s="11"/>
       <c r="D796" s="11"/>
       <c r="E796" s="11"/>
       <c r="F796" s="11"/>
       <c r="G796" s="11"/>
     </row>
-    <row r="797" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C797" s="11"/>
       <c r="D797" s="11"/>
       <c r="E797" s="11"/>
       <c r="F797" s="11"/>
       <c r="G797" s="11"/>
     </row>
-    <row r="798" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C798" s="11"/>
       <c r="D798" s="11"/>
       <c r="E798" s="11"/>
       <c r="F798" s="11"/>
       <c r="G798" s="11"/>
     </row>
-    <row r="799" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C799" s="11"/>
       <c r="D799" s="11"/>
       <c r="E799" s="11"/>
       <c r="F799" s="11"/>
       <c r="G799" s="11"/>
     </row>
-    <row r="800" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C800" s="11"/>
       <c r="D800" s="11"/>
       <c r="E800" s="11"/>
       <c r="F800" s="11"/>
       <c r="G800" s="11"/>
     </row>
-    <row r="801" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C801" s="11"/>
       <c r="D801" s="11"/>
       <c r="E801" s="11"/>
       <c r="F801" s="11"/>
       <c r="G801" s="11"/>
     </row>
-    <row r="802" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C802" s="11"/>
       <c r="D802" s="11"/>
       <c r="E802" s="11"/>
       <c r="F802" s="11"/>
       <c r="G802" s="11"/>
     </row>
-    <row r="803" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C803" s="11"/>
       <c r="D803" s="11"/>
       <c r="E803" s="11"/>
       <c r="F803" s="11"/>
       <c r="G803" s="11"/>
     </row>
-    <row r="804" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C804" s="11"/>
       <c r="D804" s="11"/>
       <c r="E804" s="11"/>
       <c r="F804" s="11"/>
       <c r="G804" s="11"/>
     </row>
-    <row r="805" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C805" s="11"/>
       <c r="D805" s="11"/>
       <c r="E805" s="11"/>
       <c r="F805" s="11"/>
       <c r="G805" s="11"/>
     </row>
-    <row r="806" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C806" s="11"/>
       <c r="D806" s="11"/>
       <c r="E806" s="11"/>
       <c r="F806" s="11"/>
       <c r="G806" s="11"/>
     </row>
-    <row r="807" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C807" s="11"/>
       <c r="D807" s="11"/>
       <c r="E807" s="11"/>
       <c r="F807" s="11"/>
       <c r="G807" s="11"/>
     </row>
-    <row r="808" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C808" s="11"/>
       <c r="D808" s="11"/>
       <c r="E808" s="11"/>
       <c r="F808" s="11"/>
       <c r="G808" s="11"/>
     </row>
-    <row r="809" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C809" s="11"/>
       <c r="D809" s="11"/>
       <c r="E809" s="11"/>
       <c r="F809" s="11"/>
       <c r="G809" s="11"/>
     </row>
-    <row r="810" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C810" s="11"/>
       <c r="D810" s="11"/>
       <c r="E810" s="11"/>
       <c r="F810" s="11"/>
       <c r="G810" s="11"/>
     </row>
-    <row r="811" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C811" s="11"/>
       <c r="D811" s="11"/>
       <c r="E811" s="11"/>
       <c r="F811" s="11"/>
       <c r="G811" s="11"/>
     </row>
-    <row r="812" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C812" s="11"/>
       <c r="D812" s="11"/>
       <c r="E812" s="11"/>
       <c r="F812" s="11"/>
       <c r="G812" s="11"/>
     </row>
-    <row r="813" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C813" s="11"/>
       <c r="D813" s="11"/>
       <c r="E813" s="11"/>
       <c r="F813" s="11"/>
       <c r="G813" s="11"/>
     </row>
-    <row r="814" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C814" s="11"/>
       <c r="D814" s="11"/>
       <c r="E814" s="11"/>
       <c r="F814" s="11"/>
       <c r="G814" s="11"/>
     </row>
-    <row r="815" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C815" s="11"/>
       <c r="D815" s="11"/>
       <c r="E815" s="11"/>
       <c r="F815" s="11"/>
       <c r="G815" s="11"/>
     </row>
-    <row r="816" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C816" s="11"/>
       <c r="D816" s="11"/>
       <c r="E816" s="11"/>
       <c r="F816" s="11"/>
       <c r="G816" s="11"/>
     </row>
-    <row r="817" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C817" s="11"/>
       <c r="D817" s="11"/>
       <c r="E817" s="11"/>
       <c r="F817" s="11"/>
       <c r="G817" s="11"/>
     </row>
-    <row r="818" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C818" s="11"/>
       <c r="D818" s="11"/>
       <c r="E818" s="11"/>
       <c r="F818" s="11"/>
       <c r="G818" s="11"/>
     </row>
-    <row r="819" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C819" s="11"/>
       <c r="D819" s="11"/>
       <c r="E819" s="11"/>
       <c r="F819" s="11"/>
       <c r="G819" s="11"/>
     </row>
-    <row r="820" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C820" s="11"/>
       <c r="D820" s="11"/>
       <c r="E820" s="11"/>
       <c r="F820" s="11"/>
       <c r="G820" s="11"/>
     </row>
-    <row r="821" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C821" s="11"/>
       <c r="D821" s="11"/>
       <c r="E821" s="11"/>
       <c r="F821" s="11"/>
       <c r="G821" s="11"/>
     </row>
-    <row r="822" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C822" s="11"/>
       <c r="D822" s="11"/>
       <c r="E822" s="11"/>
       <c r="F822" s="11"/>
       <c r="G822" s="11"/>
     </row>
-    <row r="823" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C823" s="11"/>
       <c r="D823" s="11"/>
       <c r="E823" s="11"/>
       <c r="F823" s="11"/>
       <c r="G823" s="11"/>
     </row>
-    <row r="824" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C824" s="11"/>
       <c r="D824" s="11"/>
       <c r="E824" s="11"/>
       <c r="F824" s="11"/>
       <c r="G824" s="11"/>
     </row>
-    <row r="825" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C825" s="11"/>
       <c r="D825" s="11"/>
       <c r="E825" s="11"/>
       <c r="F825" s="11"/>
       <c r="G825" s="11"/>
     </row>
-    <row r="826" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C826" s="11"/>
       <c r="D826" s="11"/>
       <c r="E826" s="11"/>
       <c r="F826" s="11"/>
       <c r="G826" s="11"/>
     </row>
-    <row r="827" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C827" s="11"/>
       <c r="D827" s="11"/>
       <c r="E827" s="11"/>
       <c r="F827" s="11"/>
       <c r="G827" s="11"/>
     </row>
-    <row r="828" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C828" s="11"/>
       <c r="D828" s="11"/>
       <c r="E828" s="11"/>
       <c r="F828" s="11"/>
       <c r="G828" s="11"/>
     </row>
-    <row r="829" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C829" s="11"/>
       <c r="D829" s="11"/>
       <c r="E829" s="11"/>
       <c r="F829" s="11"/>
       <c r="G829" s="11"/>
     </row>
-    <row r="830" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C830" s="11"/>
       <c r="D830" s="11"/>
       <c r="E830" s="11"/>
       <c r="F830" s="11"/>
       <c r="G830" s="11"/>
     </row>
-    <row r="831" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C831" s="11"/>
       <c r="D831" s="11"/>
       <c r="E831" s="11"/>
       <c r="F831" s="11"/>
       <c r="G831" s="11"/>
     </row>
-    <row r="832" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C832" s="11"/>
       <c r="D832" s="11"/>
       <c r="E832" s="11"/>
       <c r="F832" s="11"/>
       <c r="G832" s="11"/>
     </row>
-    <row r="833" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C833" s="11"/>
       <c r="D833" s="11"/>
       <c r="E833" s="11"/>
       <c r="F833" s="11"/>
       <c r="G833" s="11"/>
     </row>
-    <row r="834" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C834" s="11"/>
       <c r="D834" s="11"/>
       <c r="E834" s="11"/>
       <c r="F834" s="11"/>
       <c r="G834" s="11"/>
     </row>
-    <row r="835" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C835" s="11"/>
       <c r="D835" s="11"/>
       <c r="E835" s="11"/>
       <c r="F835" s="11"/>
       <c r="G835" s="11"/>
     </row>
-    <row r="836" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C836" s="11"/>
       <c r="D836" s="11"/>
       <c r="E836" s="11"/>
       <c r="F836" s="11"/>
       <c r="G836" s="11"/>
     </row>
-    <row r="837" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C837" s="11"/>
       <c r="D837" s="11"/>
       <c r="E837" s="11"/>
       <c r="F837" s="11"/>
       <c r="G837" s="11"/>
     </row>
-    <row r="838" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C838" s="11"/>
       <c r="D838" s="11"/>
       <c r="E838" s="11"/>
       <c r="F838" s="11"/>
       <c r="G838" s="11"/>
     </row>
-    <row r="839" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C839" s="11"/>
       <c r="D839" s="11"/>
       <c r="E839" s="11"/>
       <c r="F839" s="11"/>
       <c r="G839" s="11"/>
     </row>
-    <row r="840" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C840" s="11"/>
       <c r="D840" s="11"/>
       <c r="E840" s="11"/>
       <c r="F840" s="11"/>
       <c r="G840" s="11"/>
     </row>
-    <row r="841" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C841" s="11"/>
       <c r="D841" s="11"/>
       <c r="E841" s="11"/>
       <c r="F841" s="11"/>
       <c r="G841" s="11"/>
     </row>
-    <row r="842" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C842" s="11"/>
       <c r="D842" s="11"/>
       <c r="E842" s="11"/>
       <c r="F842" s="11"/>
       <c r="G842" s="11"/>
     </row>
-    <row r="843" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C843" s="11"/>
       <c r="D843" s="11"/>
       <c r="E843" s="11"/>
       <c r="F843" s="11"/>
       <c r="G843" s="11"/>
     </row>
-    <row r="844" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C844" s="11"/>
       <c r="D844" s="11"/>
       <c r="E844" s="11"/>
       <c r="F844" s="11"/>
       <c r="G844" s="11"/>
     </row>
-    <row r="845" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C845" s="11"/>
       <c r="D845" s="11"/>
       <c r="E845" s="11"/>
       <c r="F845" s="11"/>
       <c r="G845" s="11"/>
     </row>
-    <row r="846" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C846" s="11"/>
       <c r="D846" s="11"/>
       <c r="E846" s="11"/>
       <c r="F846" s="11"/>
       <c r="G846" s="11"/>
     </row>
-    <row r="847" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C847" s="11"/>
       <c r="D847" s="11"/>
       <c r="E847" s="11"/>
       <c r="F847" s="11"/>
       <c r="G847" s="11"/>
     </row>
-    <row r="848" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C848" s="11"/>
       <c r="D848" s="11"/>
       <c r="E848" s="11"/>
       <c r="F848" s="11"/>
       <c r="G848" s="11"/>
     </row>
-    <row r="849" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C849" s="11"/>
       <c r="D849" s="11"/>
       <c r="E849" s="11"/>
       <c r="F849" s="11"/>
       <c r="G849" s="11"/>
     </row>
-    <row r="850" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C850" s="11"/>
       <c r="D850" s="11"/>
       <c r="E850" s="11"/>
       <c r="F850" s="11"/>
       <c r="G850" s="11"/>
     </row>
-    <row r="851" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C851" s="11"/>
       <c r="D851" s="11"/>
       <c r="E851" s="11"/>
       <c r="F851" s="11"/>
       <c r="G851" s="11"/>
     </row>
-    <row r="852" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C852" s="11"/>
       <c r="D852" s="11"/>
       <c r="E852" s="11"/>
       <c r="F852" s="11"/>
       <c r="G852" s="11"/>
     </row>
-    <row r="853" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C853" s="11"/>
       <c r="D853" s="11"/>
       <c r="E853" s="11"/>
       <c r="F853" s="11"/>
       <c r="G853" s="11"/>
     </row>
-    <row r="854" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C854" s="11"/>
       <c r="D854" s="11"/>
       <c r="E854" s="11"/>
       <c r="F854" s="11"/>
       <c r="G854" s="11"/>
     </row>
-    <row r="855" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C855" s="11"/>
       <c r="D855" s="11"/>
       <c r="E855" s="11"/>
       <c r="F855" s="11"/>
       <c r="G855" s="11"/>
     </row>
-    <row r="856" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C856" s="11"/>
       <c r="D856" s="11"/>
       <c r="E856" s="11"/>
       <c r="F856" s="11"/>
       <c r="G856" s="11"/>
     </row>
-    <row r="857" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C857" s="11"/>
       <c r="D857" s="11"/>
       <c r="E857" s="11"/>
       <c r="F857" s="11"/>
       <c r="G857" s="11"/>
     </row>
-    <row r="858" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C858" s="11"/>
       <c r="D858" s="11"/>
       <c r="E858" s="11"/>
       <c r="F858" s="11"/>
       <c r="G858" s="11"/>
     </row>
-    <row r="859" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C859" s="11"/>
       <c r="D859" s="11"/>
       <c r="E859" s="11"/>
       <c r="F859" s="11"/>
       <c r="G859" s="11"/>
     </row>
-    <row r="860" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C860" s="11"/>
       <c r="D860" s="11"/>
       <c r="E860" s="11"/>
       <c r="F860" s="11"/>
       <c r="G860" s="11"/>
     </row>
-    <row r="861" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C861" s="11"/>
       <c r="D861" s="11"/>
       <c r="E861" s="11"/>
       <c r="F861" s="11"/>
       <c r="G861" s="11"/>
     </row>
-    <row r="862" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C862" s="11"/>
       <c r="D862" s="11"/>
       <c r="E862" s="11"/>
       <c r="F862" s="11"/>
       <c r="G862" s="11"/>
     </row>
-    <row r="863" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C863" s="11"/>
       <c r="D863" s="11"/>
       <c r="E863" s="11"/>
       <c r="F863" s="11"/>
       <c r="G863" s="11"/>
     </row>
-    <row r="864" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C864" s="11"/>
       <c r="D864" s="11"/>
       <c r="E864" s="11"/>
       <c r="F864" s="11"/>
       <c r="G864" s="11"/>
     </row>
-    <row r="865" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C865" s="11"/>
       <c r="D865" s="11"/>
       <c r="E865" s="11"/>
       <c r="F865" s="11"/>
       <c r="G865" s="11"/>
     </row>
-    <row r="866" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C866" s="11"/>
       <c r="D866" s="11"/>
       <c r="E866" s="11"/>
       <c r="F866" s="11"/>
       <c r="G866" s="11"/>
     </row>
-    <row r="867" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C867" s="11"/>
       <c r="D867" s="11"/>
       <c r="E867" s="11"/>
       <c r="F867" s="11"/>
       <c r="G867" s="11"/>
     </row>
-    <row r="868" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C868" s="11"/>
       <c r="D868" s="11"/>
       <c r="E868" s="11"/>
       <c r="F868" s="11"/>
       <c r="G868" s="11"/>
     </row>
-    <row r="869" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C869" s="11"/>
       <c r="D869" s="11"/>
       <c r="E869" s="11"/>
       <c r="F869" s="11"/>
       <c r="G869" s="11"/>
     </row>
-    <row r="870" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C870" s="11"/>
       <c r="D870" s="11"/>
       <c r="E870" s="11"/>
       <c r="F870" s="11"/>
       <c r="G870" s="11"/>
     </row>
-    <row r="871" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C871" s="11"/>
       <c r="D871" s="11"/>
       <c r="E871" s="11"/>
       <c r="F871" s="11"/>
       <c r="G871" s="11"/>
     </row>
-    <row r="872" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C872" s="11"/>
       <c r="D872" s="11"/>
       <c r="E872" s="11"/>
       <c r="F872" s="11"/>
       <c r="G872" s="11"/>
     </row>
-    <row r="873" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C873" s="11"/>
       <c r="D873" s="11"/>
       <c r="E873" s="11"/>
       <c r="F873" s="11"/>
       <c r="G873" s="11"/>
     </row>
-    <row r="874" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C874" s="11"/>
       <c r="D874" s="11"/>
       <c r="E874" s="11"/>
       <c r="F874" s="11"/>
       <c r="G874" s="11"/>
     </row>
-    <row r="875" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C875" s="11"/>
       <c r="D875" s="11"/>
       <c r="E875" s="11"/>
       <c r="F875" s="11"/>
       <c r="G875" s="11"/>
     </row>
-    <row r="876" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C876" s="11"/>
       <c r="D876" s="11"/>
       <c r="E876" s="11"/>
       <c r="F876" s="11"/>
       <c r="G876" s="11"/>
     </row>
-    <row r="877" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C877" s="11"/>
       <c r="D877" s="11"/>
       <c r="E877" s="11"/>
       <c r="F877" s="11"/>
       <c r="G877" s="11"/>
     </row>
-    <row r="878" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C878" s="11"/>
       <c r="D878" s="11"/>
       <c r="E878" s="11"/>
       <c r="F878" s="11"/>
       <c r="G878" s="11"/>
     </row>
-    <row r="879" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C879" s="11"/>
       <c r="D879" s="11"/>
       <c r="E879" s="11"/>
       <c r="F879" s="11"/>
       <c r="G879" s="11"/>
     </row>
-    <row r="880" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C880" s="11"/>
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
       <c r="F880" s="11"/>
       <c r="G880" s="11"/>
     </row>
-    <row r="881" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C881" s="11"/>
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
       <c r="F881" s="11"/>
       <c r="G881" s="11"/>
     </row>
-    <row r="882" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C882" s="11"/>
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
       <c r="F882" s="11"/>
       <c r="G882" s="11"/>
     </row>
-    <row r="883" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C883" s="11"/>
       <c r="D883" s="11"/>
       <c r="E883" s="11"/>
       <c r="F883" s="11"/>
       <c r="G883" s="11"/>
     </row>
-    <row r="884" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C884" s="11"/>
       <c r="D884" s="11"/>
       <c r="E884" s="11"/>
       <c r="F884" s="11"/>
       <c r="G884" s="11"/>
     </row>
-    <row r="885" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C885" s="11"/>
       <c r="D885" s="11"/>
       <c r="E885" s="11"/>
       <c r="F885" s="11"/>
       <c r="G885" s="11"/>
     </row>
-    <row r="886" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C886" s="11"/>
       <c r="D886" s="11"/>
       <c r="E886" s="11"/>
       <c r="F886" s="11"/>
       <c r="G886" s="11"/>
     </row>
-    <row r="887" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C887" s="11"/>
       <c r="D887" s="11"/>
       <c r="E887" s="11"/>
       <c r="F887" s="11"/>
       <c r="G887" s="11"/>
     </row>
-    <row r="888" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C888" s="11"/>
       <c r="D888" s="11"/>
       <c r="E888" s="11"/>
       <c r="F888" s="11"/>
       <c r="G888" s="11"/>
     </row>
-    <row r="889" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C889" s="11"/>
       <c r="D889" s="11"/>
       <c r="E889" s="11"/>
       <c r="F889" s="11"/>
       <c r="G889" s="11"/>
     </row>
-    <row r="890" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C890" s="11"/>
       <c r="D890" s="11"/>
       <c r="E890" s="11"/>
       <c r="F890" s="11"/>
       <c r="G890" s="11"/>
     </row>
-    <row r="891" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C891" s="11"/>
       <c r="D891" s="11"/>
       <c r="E891" s="11"/>
       <c r="F891" s="11"/>
       <c r="G891" s="11"/>
     </row>
-    <row r="892" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C892" s="11"/>
       <c r="D892" s="11"/>
       <c r="E892" s="11"/>
       <c r="F892" s="11"/>
       <c r="G892" s="11"/>
     </row>
-    <row r="893" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C893" s="11"/>
       <c r="D893" s="11"/>
       <c r="E893" s="11"/>
       <c r="F893" s="11"/>
       <c r="G893" s="11"/>
     </row>
-    <row r="894" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C894" s="11"/>
       <c r="D894" s="11"/>
       <c r="E894" s="11"/>
       <c r="F894" s="11"/>
       <c r="G894" s="11"/>
     </row>
-    <row r="895" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C895" s="11"/>
       <c r="D895" s="11"/>
       <c r="E895" s="11"/>
       <c r="F895" s="11"/>
       <c r="G895" s="11"/>
     </row>
-    <row r="896" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C896" s="11"/>
       <c r="D896" s="11"/>
       <c r="E896" s="11"/>
       <c r="F896" s="11"/>
       <c r="G896" s="11"/>
     </row>
-    <row r="897" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C897" s="11"/>
       <c r="D897" s="11"/>
       <c r="E897" s="11"/>
       <c r="F897" s="11"/>
       <c r="G897" s="11"/>
     </row>
-    <row r="898" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C898" s="11"/>
       <c r="D898" s="11"/>
       <c r="E898" s="11"/>
       <c r="F898" s="11"/>
       <c r="G898" s="11"/>
     </row>
-    <row r="899" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C899" s="11"/>
       <c r="D899" s="11"/>
       <c r="E899" s="11"/>
       <c r="F899" s="11"/>
       <c r="G899" s="11"/>
     </row>
-    <row r="900" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C900" s="11"/>
       <c r="D900" s="11"/>
       <c r="E900" s="11"/>
       <c r="F900" s="11"/>
       <c r="G900" s="11"/>
     </row>
-    <row r="901" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C901" s="11"/>
       <c r="D901" s="11"/>
       <c r="E901" s="11"/>
       <c r="F901" s="11"/>
       <c r="G901" s="11"/>
     </row>
-    <row r="902" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C902" s="11"/>
       <c r="D902" s="11"/>
       <c r="E902" s="11"/>
       <c r="F902" s="11"/>
       <c r="G902" s="11"/>
     </row>
-    <row r="903" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C903" s="11"/>
       <c r="D903" s="11"/>
       <c r="E903" s="11"/>
       <c r="F903" s="11"/>
       <c r="G903" s="11"/>
     </row>
-    <row r="904" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C904" s="11"/>
       <c r="D904" s="11"/>
       <c r="E904" s="11"/>
       <c r="F904" s="11"/>
       <c r="G904" s="11"/>
     </row>
-    <row r="905" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C905" s="11"/>
       <c r="D905" s="11"/>
       <c r="E905" s="11"/>
       <c r="F905" s="11"/>
       <c r="G905" s="11"/>
     </row>
-    <row r="906" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C906" s="11"/>
       <c r="D906" s="11"/>
       <c r="E906" s="11"/>
       <c r="F906" s="11"/>
       <c r="G906" s="11"/>
     </row>
-    <row r="907" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C907" s="11"/>
       <c r="D907" s="11"/>
       <c r="E907" s="11"/>
       <c r="F907" s="11"/>
       <c r="G907" s="11"/>
     </row>
-    <row r="908" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C908" s="11"/>
       <c r="D908" s="11"/>
       <c r="E908" s="11"/>
       <c r="F908" s="11"/>
       <c r="G908" s="11"/>
     </row>
-    <row r="909" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C909" s="11"/>
       <c r="D909" s="11"/>
       <c r="E909" s="11"/>
       <c r="F909" s="11"/>
       <c r="G909" s="11"/>
     </row>
-    <row r="910" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C910" s="11"/>
       <c r="D910" s="11"/>
       <c r="E910" s="11"/>
       <c r="F910" s="11"/>
       <c r="G910" s="11"/>
     </row>
-    <row r="911" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C911" s="11"/>
       <c r="D911" s="11"/>
       <c r="E911" s="11"/>
       <c r="F911" s="11"/>
       <c r="G911" s="11"/>
     </row>
-    <row r="912" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C912" s="11"/>
       <c r="D912" s="11"/>
       <c r="E912" s="11"/>
       <c r="F912" s="11"/>
       <c r="G912" s="11"/>
     </row>
-    <row r="913" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C913" s="11"/>
       <c r="D913" s="11"/>
       <c r="E913" s="11"/>
       <c r="F913" s="11"/>
       <c r="G913" s="11"/>
     </row>
-    <row r="914" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C914" s="11"/>
       <c r="D914" s="11"/>
       <c r="E914" s="11"/>
       <c r="F914" s="11"/>
       <c r="G914" s="11"/>
     </row>
-    <row r="915" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C915" s="11"/>
       <c r="D915" s="11"/>
       <c r="E915" s="11"/>
       <c r="F915" s="11"/>
       <c r="G915" s="11"/>
     </row>
-    <row r="916" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C916" s="11"/>
       <c r="D916" s="11"/>
       <c r="E916" s="11"/>
       <c r="F916" s="11"/>
       <c r="G916" s="11"/>
     </row>
-    <row r="917" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C917" s="11"/>
       <c r="D917" s="11"/>
       <c r="E917" s="11"/>
       <c r="F917" s="11"/>
       <c r="G917" s="11"/>
     </row>
-    <row r="918" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C918" s="11"/>
       <c r="D918" s="11"/>
       <c r="E918" s="11"/>
       <c r="F918" s="11"/>
       <c r="G918" s="11"/>
     </row>
-    <row r="919" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C919" s="11"/>
       <c r="D919" s="11"/>
       <c r="E919" s="11"/>
       <c r="F919" s="11"/>
       <c r="G919" s="11"/>
     </row>
-    <row r="920" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C920" s="11"/>
       <c r="D920" s="11"/>
       <c r="E920" s="11"/>
       <c r="F920" s="11"/>
       <c r="G920" s="11"/>
     </row>
-    <row r="921" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C921" s="11"/>
       <c r="D921" s="11"/>
       <c r="E921" s="11"/>
       <c r="F921" s="11"/>
       <c r="G921" s="11"/>
     </row>
-    <row r="922" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C922" s="11"/>
       <c r="D922" s="11"/>
       <c r="E922" s="11"/>
       <c r="F922" s="11"/>
       <c r="G922" s="11"/>
     </row>
-    <row r="923" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C923" s="11"/>
       <c r="D923" s="11"/>
       <c r="E923" s="11"/>
       <c r="F923" s="11"/>
       <c r="G923" s="11"/>
     </row>
-    <row r="924" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C924" s="11"/>
       <c r="D924" s="11"/>
       <c r="E924" s="11"/>
       <c r="F924" s="11"/>
       <c r="G924" s="11"/>
     </row>
-    <row r="925" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C925" s="11"/>
       <c r="D925" s="11"/>
       <c r="E925" s="11"/>
       <c r="F925" s="11"/>
       <c r="G925" s="11"/>
     </row>
-    <row r="926" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C926" s="11"/>
       <c r="D926" s="11"/>
       <c r="E926" s="11"/>
       <c r="F926" s="11"/>
       <c r="G926" s="11"/>
     </row>
-    <row r="927" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C927" s="11"/>
       <c r="D927" s="11"/>
       <c r="E927" s="11"/>
       <c r="F927" s="11"/>
       <c r="G927" s="11"/>
     </row>
-    <row r="928" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C928" s="11"/>
       <c r="D928" s="11"/>
       <c r="E928" s="11"/>
       <c r="F928" s="11"/>
       <c r="G928" s="11"/>
     </row>
-    <row r="929" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C929" s="11"/>
       <c r="D929" s="11"/>
       <c r="E929" s="11"/>
       <c r="F929" s="11"/>
       <c r="G929" s="11"/>
     </row>
-    <row r="930" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C930" s="11"/>
       <c r="D930" s="11"/>
       <c r="E930" s="11"/>
       <c r="F930" s="11"/>
       <c r="G930" s="11"/>
     </row>
-    <row r="931" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C931" s="11"/>
       <c r="D931" s="11"/>
       <c r="E931" s="11"/>
       <c r="F931" s="11"/>
       <c r="G931" s="11"/>
     </row>
-    <row r="932" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C932" s="11"/>
       <c r="D932" s="11"/>
       <c r="E932" s="11"/>
       <c r="F932" s="11"/>
       <c r="G932" s="11"/>
     </row>
-    <row r="933" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C933" s="11"/>
       <c r="D933" s="11"/>
       <c r="E933" s="11"/>
       <c r="F933" s="11"/>
       <c r="G933" s="11"/>
     </row>
-    <row r="934" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C934" s="11"/>
       <c r="D934" s="11"/>
       <c r="E934" s="11"/>
       <c r="F934" s="11"/>
       <c r="G934" s="11"/>
     </row>
-    <row r="935" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C935" s="11"/>
       <c r="D935" s="11"/>
       <c r="E935" s="11"/>
       <c r="F935" s="11"/>
       <c r="G935" s="11"/>
     </row>
-    <row r="936" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C936" s="11"/>
       <c r="D936" s="11"/>
       <c r="E936" s="11"/>
       <c r="F936" s="11"/>
       <c r="G936" s="11"/>
     </row>
-    <row r="937" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C937" s="11"/>
       <c r="D937" s="11"/>
       <c r="E937" s="11"/>
       <c r="F937" s="11"/>
       <c r="G937" s="11"/>
     </row>
-    <row r="938" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C938" s="11"/>
       <c r="D938" s="11"/>
       <c r="E938" s="11"/>
       <c r="F938" s="11"/>
       <c r="G938" s="11"/>
     </row>
-    <row r="939" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C939" s="11"/>
       <c r="D939" s="11"/>
       <c r="E939" s="11"/>
       <c r="F939" s="11"/>
       <c r="G939" s="11"/>
     </row>
-    <row r="940" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C940" s="11"/>
       <c r="D940" s="11"/>
       <c r="E940" s="11"/>
       <c r="F940" s="11"/>
       <c r="G940" s="11"/>
     </row>
-    <row r="941" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C941" s="11"/>
       <c r="D941" s="11"/>
       <c r="E941" s="11"/>
       <c r="F941" s="11"/>
       <c r="G941" s="11"/>
     </row>
-    <row r="942" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C942" s="11"/>
       <c r="D942" s="11"/>
       <c r="E942" s="11"/>
       <c r="F942" s="11"/>
       <c r="G942" s="11"/>
     </row>
-    <row r="943" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C943" s="11"/>
       <c r="D943" s="11"/>
       <c r="E943" s="11"/>
       <c r="F943" s="11"/>
       <c r="G943" s="11"/>
     </row>
-    <row r="944" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C944" s="11"/>
       <c r="D944" s="11"/>
       <c r="E944" s="11"/>
       <c r="F944" s="11"/>
       <c r="G944" s="11"/>
     </row>
-    <row r="945" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C945" s="11"/>
       <c r="D945" s="11"/>
       <c r="E945" s="11"/>
       <c r="F945" s="11"/>
       <c r="G945" s="11"/>
     </row>
-    <row r="946" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C946" s="11"/>
       <c r="D946" s="11"/>
       <c r="E946" s="11"/>
       <c r="F946" s="11"/>
       <c r="G946" s="11"/>
     </row>
-    <row r="947" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C947" s="11"/>
       <c r="D947" s="11"/>
       <c r="E947" s="11"/>
       <c r="F947" s="11"/>
       <c r="G947" s="11"/>
     </row>
-    <row r="948" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C948" s="11"/>
       <c r="D948" s="11"/>
       <c r="E948" s="11"/>
       <c r="F948" s="11"/>
       <c r="G948" s="11"/>
     </row>
-    <row r="949" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C949" s="11"/>
       <c r="D949" s="11"/>
       <c r="E949" s="11"/>
       <c r="F949" s="11"/>
       <c r="G949" s="11"/>
     </row>
-    <row r="950" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C950" s="11"/>
       <c r="D950" s="11"/>
       <c r="E950" s="11"/>
       <c r="F950" s="11"/>
       <c r="G950" s="11"/>
     </row>
-    <row r="951" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C951" s="11"/>
       <c r="D951" s="11"/>
       <c r="E951" s="11"/>
       <c r="F951" s="11"/>
       <c r="G951" s="11"/>
     </row>
-    <row r="952" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C952" s="11"/>
       <c r="D952" s="11"/>
       <c r="E952" s="11"/>
       <c r="F952" s="11"/>
       <c r="G952" s="11"/>
     </row>
-    <row r="953" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C953" s="11"/>
       <c r="D953" s="11"/>
       <c r="E953" s="11"/>
       <c r="F953" s="11"/>
       <c r="G953" s="11"/>
     </row>
-    <row r="954" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C954" s="11"/>
       <c r="D954" s="11"/>
       <c r="E954" s="11"/>
       <c r="F954" s="11"/>
       <c r="G954" s="11"/>
     </row>
-    <row r="955" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C955" s="11"/>
       <c r="D955" s="11"/>
       <c r="E955" s="11"/>
       <c r="F955" s="11"/>
       <c r="G955" s="11"/>
     </row>
-    <row r="956" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C956" s="11"/>
       <c r="D956" s="11"/>
       <c r="E956" s="11"/>
       <c r="F956" s="11"/>
       <c r="G956" s="11"/>
     </row>
-    <row r="957" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C957" s="11"/>
       <c r="D957" s="11"/>
       <c r="E957" s="11"/>
       <c r="F957" s="11"/>
       <c r="G957" s="11"/>
     </row>
-    <row r="958" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C958" s="11"/>
       <c r="D958" s="11"/>
       <c r="E958" s="11"/>
       <c r="F958" s="11"/>
       <c r="G958" s="11"/>
     </row>
-    <row r="959" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C959" s="11"/>
       <c r="D959" s="11"/>
       <c r="E959" s="11"/>
       <c r="F959" s="11"/>
       <c r="G959" s="11"/>
     </row>
-    <row r="960" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C960" s="11"/>
       <c r="D960" s="11"/>
       <c r="E960" s="11"/>
       <c r="F960" s="11"/>
       <c r="G960" s="11"/>
     </row>
-    <row r="961" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C961" s="11"/>
       <c r="D961" s="11"/>
       <c r="E961" s="11"/>
       <c r="F961" s="11"/>
       <c r="G961" s="11"/>
     </row>
-    <row r="962" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C962" s="11"/>
       <c r="D962" s="11"/>
       <c r="E962" s="11"/>
       <c r="F962" s="11"/>
       <c r="G962" s="11"/>
     </row>
-    <row r="963" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C963" s="11"/>
       <c r="D963" s="11"/>
       <c r="E963" s="11"/>
       <c r="F963" s="11"/>
       <c r="G963" s="11"/>
     </row>
-    <row r="964" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C964" s="11"/>
       <c r="D964" s="11"/>
       <c r="E964" s="11"/>
       <c r="F964" s="11"/>
       <c r="G964" s="11"/>
     </row>
-    <row r="965" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C965" s="11"/>
       <c r="D965" s="11"/>
       <c r="E965" s="11"/>
       <c r="F965" s="11"/>
       <c r="G965" s="11"/>
     </row>
-    <row r="966" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C966" s="11"/>
       <c r="D966" s="11"/>
       <c r="E966" s="11"/>
       <c r="F966" s="11"/>
       <c r="G966" s="11"/>
     </row>
-    <row r="967" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C967" s="11"/>
       <c r="D967" s="11"/>
       <c r="E967" s="11"/>
       <c r="F967" s="11"/>
       <c r="G967" s="11"/>
     </row>
-    <row r="968" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C968" s="11"/>
       <c r="D968" s="11"/>
       <c r="E968" s="11"/>
       <c r="F968" s="11"/>
       <c r="G968" s="11"/>
     </row>
-    <row r="969" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C969" s="11"/>
       <c r="D969" s="11"/>
       <c r="E969" s="11"/>
       <c r="F969" s="11"/>
       <c r="G969" s="11"/>
     </row>
-    <row r="970" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C970" s="11"/>
       <c r="D970" s="11"/>
       <c r="E970" s="11"/>
       <c r="F970" s="11"/>
       <c r="G970" s="11"/>
     </row>
-    <row r="971" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C971" s="11"/>
       <c r="D971" s="11"/>
       <c r="E971" s="11"/>
       <c r="F971" s="11"/>
       <c r="G971" s="11"/>
     </row>
-    <row r="972" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C972" s="11"/>
       <c r="D972" s="11"/>
       <c r="E972" s="11"/>
       <c r="F972" s="11"/>
       <c r="G972" s="11"/>
     </row>
-    <row r="973" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C973" s="11"/>
       <c r="D973" s="11"/>
       <c r="E973" s="11"/>
       <c r="F973" s="11"/>
       <c r="G973" s="11"/>
     </row>
-    <row r="974" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C974" s="11"/>
       <c r="D974" s="11"/>
       <c r="E974" s="11"/>
       <c r="F974" s="11"/>
       <c r="G974" s="11"/>
     </row>
-    <row r="975" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C975" s="11"/>
       <c r="D975" s="11"/>
       <c r="E975" s="11"/>
       <c r="F975" s="11"/>
       <c r="G975" s="11"/>
     </row>
-    <row r="976" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C976" s="11"/>
       <c r="D976" s="11"/>
       <c r="E976" s="11"/>
       <c r="F976" s="11"/>
       <c r="G976" s="11"/>
     </row>
-    <row r="977" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C977" s="11"/>
       <c r="D977" s="11"/>
       <c r="E977" s="11"/>
       <c r="F977" s="11"/>
       <c r="G977" s="11"/>
     </row>
-    <row r="978" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C978" s="11"/>
       <c r="D978" s="11"/>
       <c r="E978" s="11"/>
       <c r="F978" s="11"/>
       <c r="G978" s="11"/>
     </row>
-    <row r="979" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C979" s="11"/>
       <c r="D979" s="11"/>
       <c r="E979" s="11"/>
       <c r="F979" s="11"/>
       <c r="G979" s="11"/>
     </row>
-    <row r="980" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C980" s="11"/>
       <c r="D980" s="11"/>
       <c r="E980" s="11"/>
       <c r="F980" s="11"/>
       <c r="G980" s="11"/>
     </row>
-    <row r="981" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C981" s="11"/>
       <c r="D981" s="11"/>
       <c r="E981" s="11"/>
       <c r="F981" s="11"/>
       <c r="G981" s="11"/>
     </row>
-    <row r="982" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C982" s="11"/>
       <c r="D982" s="11"/>
       <c r="E982" s="11"/>
       <c r="F982" s="11"/>
       <c r="G982" s="11"/>
     </row>
-    <row r="983" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C983" s="11"/>
       <c r="D983" s="11"/>
       <c r="E983" s="11"/>
       <c r="F983" s="11"/>
       <c r="G983" s="11"/>
     </row>
-    <row r="984" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C984" s="11"/>
       <c r="D984" s="11"/>
       <c r="E984" s="11"/>
       <c r="F984" s="11"/>
       <c r="G984" s="11"/>
     </row>
-    <row r="985" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C985" s="11"/>
       <c r="D985" s="11"/>
       <c r="E985" s="11"/>
       <c r="F985" s="11"/>
       <c r="G985" s="11"/>
     </row>
-    <row r="986" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C986" s="11"/>
       <c r="D986" s="11"/>
       <c r="E986" s="11"/>
       <c r="F986" s="11"/>
       <c r="G986" s="11"/>
     </row>
-    <row r="987" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C987" s="11"/>
       <c r="D987" s="11"/>
       <c r="E987" s="11"/>
       <c r="F987" s="11"/>
       <c r="G987" s="11"/>
     </row>
-    <row r="988" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C988" s="11"/>
       <c r="D988" s="11"/>
       <c r="E988" s="11"/>
       <c r="F988" s="11"/>
       <c r="G988" s="11"/>
     </row>
-    <row r="989" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C989" s="11"/>
       <c r="D989" s="11"/>
       <c r="E989" s="11"/>
       <c r="F989" s="11"/>
       <c r="G989" s="11"/>
     </row>
-    <row r="990" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C990" s="11"/>
       <c r="D990" s="11"/>
       <c r="E990" s="11"/>
       <c r="F990" s="11"/>
       <c r="G990" s="11"/>
     </row>
-    <row r="991" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C991" s="11"/>
       <c r="D991" s="11"/>
       <c r="E991" s="11"/>
       <c r="F991" s="11"/>
       <c r="G991" s="11"/>
     </row>
-    <row r="992" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C992" s="11"/>
       <c r="D992" s="11"/>
       <c r="E992" s="11"/>
       <c r="F992" s="11"/>
       <c r="G992" s="11"/>
     </row>
-    <row r="993" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C993" s="11"/>
       <c r="D993" s="11"/>
       <c r="E993" s="11"/>
       <c r="F993" s="11"/>
       <c r="G993" s="11"/>
     </row>
-    <row r="994" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C994" s="11"/>
       <c r="D994" s="11"/>
       <c r="E994" s="11"/>
       <c r="F994" s="11"/>
       <c r="G994" s="11"/>
     </row>
-    <row r="995" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C995" s="11"/>
       <c r="D995" s="11"/>
       <c r="E995" s="11"/>
       <c r="F995" s="11"/>
       <c r="G995" s="11"/>
     </row>
-    <row r="996" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C996" s="11"/>
       <c r="D996" s="11"/>
       <c r="E996" s="11"/>
       <c r="F996" s="11"/>
       <c r="G996" s="11"/>
     </row>
-    <row r="997" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C997" s="11"/>
       <c r="D997" s="11"/>
       <c r="E997" s="11"/>
       <c r="F997" s="11"/>
       <c r="G997" s="11"/>
     </row>
-    <row r="998" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C998" s="11"/>
       <c r="D998" s="11"/>
       <c r="E998" s="11"/>
       <c r="F998" s="11"/>
       <c r="G998" s="11"/>
     </row>
-    <row r="999" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C999" s="11"/>
       <c r="D999" s="11"/>
       <c r="E999" s="11"/>
       <c r="F999" s="11"/>
       <c r="G999" s="11"/>
     </row>
-    <row r="1000" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1000" s="11"/>
       <c r="D1000" s="11"/>
       <c r="E1000" s="11"/>
       <c r="F1000" s="11"/>
       <c r="G1000" s="11"/>
     </row>
-    <row r="1001" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1001" s="11"/>
       <c r="D1001" s="11"/>
       <c r="E1001" s="11"/>
